--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
-    <sheet name="Zone1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Zone1" sheetId="1" r:id="rId2"/>
     <sheet name="Resus" sheetId="21" r:id="rId3"/>
     <sheet name="ZONE (1) MAJOR" sheetId="23" r:id="rId4"/>
     <sheet name="Zone2" sheetId="2" state="hidden" r:id="rId5"/>
@@ -1274,12 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1295,7 +1289,13 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1650,61 +1650,29 @@
       <c r="A1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="37">
-        <v>4.4710683340905222</v>
-      </c>
-      <c r="C1" s="37">
-        <v>9.8183659296948456</v>
-      </c>
-      <c r="D1" s="37">
-        <v>2.9432690210607175</v>
-      </c>
-      <c r="E1" s="37">
-        <v>5.5270913428264761</v>
-      </c>
-      <c r="F1" s="37">
-        <v>9.8440354344834908</v>
-      </c>
-      <c r="G1" s="37">
-        <v>3.8151997202728345</v>
-      </c>
-      <c r="H1" s="37">
-        <v>3.5037154970923434</v>
-      </c>
-      <c r="I1" s="37">
-        <v>3.0882827704190272</v>
-      </c>
-      <c r="J1" s="37">
-        <v>3.971077314599825</v>
-      </c>
-      <c r="K1" s="38">
-        <v>19</v>
-      </c>
-      <c r="L1" s="38">
-        <v>115</v>
-      </c>
-      <c r="M1" s="38">
-        <v>9</v>
-      </c>
-      <c r="N1" s="39">
-        <v>4.6039190531083305</v>
-      </c>
-      <c r="O1" s="39">
-        <v>0.97073973496402666</v>
-      </c>
-      <c r="P1" s="39">
-        <v>0.8558730301571259</v>
-      </c>
-      <c r="Q1" s="39">
-        <v>84.692687591441583</v>
-      </c>
-      <c r="R1" s="40">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40" t="e">
         <f>K1/L1</f>
-        <v>0.16521739130434782</v>
-      </c>
-      <c r="S1" s="40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S1" s="40" t="e">
         <f>M1/K1</f>
-        <v>0.47368421052631576</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1966,69 +1934,69 @@
       <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="44">
+      <c r="B13" s="44" t="e">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>4.4710683340905222</v>
-      </c>
-      <c r="C13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>9.8183659296948456</v>
-      </c>
-      <c r="D13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>2.9432690210607175</v>
-      </c>
-      <c r="E13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>5.5270913428264761</v>
-      </c>
-      <c r="F13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>9.8440354344834908</v>
-      </c>
-      <c r="G13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>3.8151997202728345</v>
-      </c>
-      <c r="H13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>3.5037154970923434</v>
-      </c>
-      <c r="I13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>3.0882827704190272</v>
-      </c>
-      <c r="J13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>3.971077314599825</v>
-      </c>
-      <c r="K13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="L13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="44" t="e">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="M13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="44" t="e">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>9</v>
-      </c>
-      <c r="N13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="44" t="e">
         <f t="shared" si="3"/>
-        <v>4.6039190531083305</v>
-      </c>
-      <c r="O13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="44" t="e">
         <f t="shared" si="3"/>
-        <v>0.97073973496402666</v>
-      </c>
-      <c r="P13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="44" t="e">
         <f t="shared" si="3"/>
-        <v>0.8558730301571259</v>
-      </c>
-      <c r="Q13" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="44" t="e">
         <f t="shared" si="3"/>
-        <v>84.692687591441583</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>
@@ -2155,11 +2123,11 @@
       <c r="A1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -9604,7 +9572,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -9639,7 +9607,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="63">
         <v>2</v>
       </c>
@@ -9672,7 +9640,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="63">
         <v>2</v>
       </c>
@@ -10160,7 +10128,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="100" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -10200,7 +10168,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="63">
         <v>7</v>
       </c>
@@ -10238,7 +10206,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="63">
         <v>5</v>
       </c>
@@ -11236,7 +11204,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="100" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -11274,7 +11242,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="63">
         <v>7</v>
       </c>
@@ -11310,7 +11278,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="63">
         <v>5</v>
       </c>
@@ -11390,7 +11358,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="100" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="63">
@@ -11428,7 +11396,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="63">
         <v>7</v>
       </c>
@@ -11464,7 +11432,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="63">
         <v>5</v>
       </c>
@@ -12594,16 +12562,16 @@
       <c r="A1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="99"/>
-      <c r="J1" s="98" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="J1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="99"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1620,7 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1650,29 +1652,61 @@
       <c r="A1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40" t="e">
+      <c r="B1" s="37">
+        <v>4.4583599872227442</v>
+      </c>
+      <c r="C1" s="37">
+        <v>9.8183659296948456</v>
+      </c>
+      <c r="D1" s="37">
+        <v>2.9269297179450011</v>
+      </c>
+      <c r="E1" s="37">
+        <v>5.4764344229865012</v>
+      </c>
+      <c r="F1" s="37">
+        <v>9.8440354344834908</v>
+      </c>
+      <c r="G1" s="37">
+        <v>3.8021873685793248</v>
+      </c>
+      <c r="H1" s="37">
+        <v>3.4082678199301881</v>
+      </c>
+      <c r="I1" s="37">
+        <v>3.6050104842361179</v>
+      </c>
+      <c r="J1" s="37">
+        <v>3.2115251556242583</v>
+      </c>
+      <c r="K1" s="38">
+        <v>19</v>
+      </c>
+      <c r="L1" s="38">
+        <v>115</v>
+      </c>
+      <c r="M1" s="38">
+        <v>8</v>
+      </c>
+      <c r="N1" s="39">
+        <v>3.1668380006871057</v>
+      </c>
+      <c r="O1" s="39">
+        <v>0.81520040448645337</v>
+      </c>
+      <c r="P1" s="39">
+        <v>0.38225894043642089</v>
+      </c>
+      <c r="Q1" s="39">
+        <v>46.731286907145062</v>
+      </c>
+      <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S1" s="40" t="e">
+        <v>0.16521739130434782</v>
+      </c>
+      <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>#DIV/0!</v>
+        <v>0.42105263157894735</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1934,69 +1968,69 @@
       <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="e">
+      <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" s="44" t="e">
+        <v>4.4583599872227442</v>
+      </c>
+      <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="44" t="e">
+        <v>9.8183659296948456</v>
+      </c>
+      <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="44" t="e">
+        <v>2.9269297179450011</v>
+      </c>
+      <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="44" t="e">
+        <v>5.4764344229865012</v>
+      </c>
+      <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="44" t="e">
+        <v>9.8440354344834908</v>
+      </c>
+      <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="44" t="e">
+        <v>3.8021873685793248</v>
+      </c>
+      <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="44" t="e">
+        <v>3.4082678199301881</v>
+      </c>
+      <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="44" t="e">
+        <v>3.6050104842361179</v>
+      </c>
+      <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="44" t="e">
+        <v>3.2115251556242583</v>
+      </c>
+      <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="44" t="e">
+        <v>19</v>
+      </c>
+      <c r="L13" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="44" t="e">
+        <v>115</v>
+      </c>
+      <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="44" t="e">
+        <v>8</v>
+      </c>
+      <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="44" t="e">
+        <v>3.1668380006871057</v>
+      </c>
+      <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="44" t="e">
+        <v>0.81520040448645337</v>
+      </c>
+      <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="44" t="e">
+        <v>0.38225894043642089</v>
+      </c>
+      <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>46.731286907145062</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
-    <sheet name="Zone1" sheetId="1" r:id="rId2"/>
+    <sheet name="Zone1" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Resus" sheetId="21" r:id="rId3"/>
     <sheet name="ZONE (1) MAJOR" sheetId="23" r:id="rId4"/>
     <sheet name="Zone2" sheetId="2" state="hidden" r:id="rId5"/>
@@ -1620,9 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2142,9 +2140,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2300,11 +2296,9 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2312,7 +2306,7 @@
     <col min="2" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
         <v>69</v>
       </c>
@@ -2320,261 +2314,147 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="84">
         <v>1</v>
       </c>
-      <c r="D2" s="84">
-        <v>1</v>
-      </c>
-      <c r="F2" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="84">
         <v>7</v>
       </c>
-      <c r="D3" s="84">
-        <v>7</v>
-      </c>
-      <c r="F3" s="84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="84">
         <v>10</v>
       </c>
-      <c r="D4" s="84">
-        <v>10</v>
-      </c>
-      <c r="F4" s="84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="84">
         <v>8</v>
       </c>
-      <c r="D5" s="84">
-        <v>11</v>
-      </c>
-      <c r="F5" s="84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="84">
         <v>3</v>
       </c>
-      <c r="C6" s="48">
-        <v>3</v>
-      </c>
-      <c r="D6" s="84">
-        <v>3</v>
-      </c>
-      <c r="F6" s="84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="84">
         <v>4</v>
       </c>
-      <c r="D7" s="84">
-        <v>4</v>
-      </c>
-      <c r="F7" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="84">
         <v>14</v>
       </c>
-      <c r="D8" s="84">
-        <v>36</v>
-      </c>
-      <c r="F8" s="84">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="84">
         <v>100</v>
       </c>
-      <c r="D9" s="84">
-        <v>100</v>
-      </c>
-      <c r="F9" s="84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="84">
         <v>4</v>
       </c>
-      <c r="C10" s="48">
-        <v>1</v>
-      </c>
-      <c r="D10" s="84">
-        <v>1</v>
-      </c>
-      <c r="F10" s="84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="84">
         <v>23</v>
       </c>
-      <c r="D11" s="84">
-        <v>23</v>
-      </c>
-      <c r="F11" s="84">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="84">
         <v>2</v>
       </c>
-      <c r="D12" s="84">
-        <v>1</v>
-      </c>
-      <c r="F12" s="84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="84">
         <v>10</v>
       </c>
-      <c r="D13" s="84">
-        <v>1</v>
-      </c>
-      <c r="F13" s="84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="84">
         <v>10</v>
       </c>
-      <c r="D14" s="84">
-        <v>1</v>
-      </c>
-      <c r="F14" s="84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="84">
         <v>100</v>
       </c>
-      <c r="D15" s="84">
-        <v>10</v>
-      </c>
-      <c r="F15" s="84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B16" s="84">
         <v>5</v>
       </c>
-      <c r="D16" s="84">
-        <v>3</v>
-      </c>
-      <c r="F16" s="84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="84">
         <v>10</v>
       </c>
-      <c r="D17" s="84">
-        <v>2</v>
-      </c>
-      <c r="F17" s="84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="84">
         <v>7</v>
       </c>
-      <c r="D18" s="84">
-        <v>7</v>
-      </c>
-      <c r="F18" s="84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="84">
-        <v>10</v>
-      </c>
-      <c r="D19" s="84">
-        <v>2</v>
-      </c>
-      <c r="F19" s="84">
         <v>10</v>
       </c>
     </row>
@@ -2591,9 +2471,7 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2841,9 +2719,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3227,9 +3103,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3654,9 +3528,7 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4339,9 +4211,7 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5651,9 +5521,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7375,9 +7243,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8420,9 +8286,7 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8843,9 +8707,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10775,7 +10637,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11520,7 +11382,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12581,9 +12443,7 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1651,60 +1651,60 @@
         <v>143</v>
       </c>
       <c r="B1" s="37">
-        <v>4.4583599872227442</v>
+        <v>9.4736057574784471</v>
       </c>
       <c r="C1" s="37">
-        <v>9.8183659296948456</v>
+        <v>19.456779535111586</v>
       </c>
       <c r="D1" s="37">
-        <v>2.9269297179450011</v>
+        <v>7.1371182776068629</v>
       </c>
       <c r="E1" s="37">
-        <v>5.4764344229865012</v>
+        <v>12.229499457277424</v>
       </c>
       <c r="F1" s="37">
-        <v>9.8440354344834908</v>
+        <v>19.123833141007431</v>
       </c>
       <c r="G1" s="37">
-        <v>3.8021873685793248</v>
+        <v>10.208159769155204</v>
       </c>
       <c r="H1" s="37">
-        <v>3.4082678199301881</v>
+        <v>4.1657701993826768</v>
       </c>
       <c r="I1" s="37">
-        <v>3.6050104842361179</v>
+        <v>4.2327533637123578</v>
       </c>
       <c r="J1" s="37">
-        <v>3.2115251556242583</v>
+        <v>4.0876231743313838</v>
       </c>
       <c r="K1" s="38">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L1" s="38">
-        <v>115</v>
+        <v>1380</v>
       </c>
       <c r="M1" s="38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" s="39">
-        <v>3.1668380006871057</v>
+        <v>16.270053665197519</v>
       </c>
       <c r="O1" s="39">
-        <v>0.81520040448645337</v>
+        <v>0.13187063212815422</v>
       </c>
       <c r="P1" s="39">
-        <v>0.38225894043642089</v>
+        <v>2.1661239725989826E-2</v>
       </c>
       <c r="Q1" s="39">
-        <v>46.731286907145062</v>
+        <v>39.630738559932787</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.16521739130434782</v>
+        <v>1.7391304347826087E-2</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.42105263157894735</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1968,67 +1968,67 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>4.4583599872227442</v>
+        <v>9.4736057574784471</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>9.8183659296948456</v>
+        <v>19.456779535111586</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>2.9269297179450011</v>
+        <v>7.1371182776068629</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>5.4764344229865012</v>
+        <v>12.229499457277424</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>9.8440354344834908</v>
+        <v>19.123833141007431</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>3.8021873685793248</v>
+        <v>10.208159769155204</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>3.4082678199301881</v>
+        <v>4.1657701993826768</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>3.6050104842361179</v>
+        <v>4.2327533637123578</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>3.2115251556242583</v>
+        <v>4.0876231743313838</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>1380</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>3.1668380006871057</v>
+        <v>16.270053665197519</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.81520040448645337</v>
+        <v>0.13187063212815422</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.38225894043642089</v>
+        <v>2.1661239725989826E-2</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>46.731286907145062</v>
+        <v>39.630738559932787</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1651,60 +1651,60 @@
         <v>143</v>
       </c>
       <c r="B1" s="37">
-        <v>9.4736057574784471</v>
+        <v>7.8548539758837528</v>
       </c>
       <c r="C1" s="37">
-        <v>19.456779535111586</v>
+        <v>14.819505825125047</v>
       </c>
       <c r="D1" s="37">
-        <v>7.1371182776068629</v>
+        <v>6.0762197876987472</v>
       </c>
       <c r="E1" s="37">
-        <v>12.229499457277424</v>
+        <v>9.9591064651170917</v>
       </c>
       <c r="F1" s="37">
-        <v>19.123833141007431</v>
+        <v>15.725214051100446</v>
       </c>
       <c r="G1" s="37">
-        <v>10.208159769155204</v>
+        <v>8.006412362379157</v>
       </c>
       <c r="H1" s="37">
-        <v>4.1657701993826768</v>
+        <v>5.6957430509501119</v>
       </c>
       <c r="I1" s="37">
-        <v>4.2327533637123578</v>
+        <v>5.9705266151515977</v>
       </c>
       <c r="J1" s="37">
-        <v>4.0876231743313838</v>
+        <v>5.403373338639736</v>
       </c>
       <c r="K1" s="38">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="L1" s="38">
         <v>1380</v>
       </c>
       <c r="M1" s="38">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N1" s="39">
-        <v>16.270053665197519</v>
+        <v>77.516614696715607</v>
       </c>
       <c r="O1" s="39">
-        <v>0.13187063212815422</v>
+        <v>0.81189348123287064</v>
       </c>
       <c r="P1" s="39">
-        <v>2.1661239725989826E-2</v>
+        <v>0.35014700259657378</v>
       </c>
       <c r="Q1" s="39">
-        <v>39.630738559932787</v>
+        <v>58.646956703731725</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>1.7391304347826087E-2</v>
+        <v>0.18695652173913044</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.29166666666666669</v>
+        <v>0.20930232558139536</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1968,43 +1968,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>9.4736057574784471</v>
+        <v>7.8548539758837528</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>19.456779535111586</v>
+        <v>14.819505825125047</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>7.1371182776068629</v>
+        <v>6.0762197876987472</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>12.229499457277424</v>
+        <v>9.9591064651170917</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>19.123833141007431</v>
+        <v>15.725214051100446</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>10.208159769155204</v>
+        <v>8.006412362379157</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>4.1657701993826768</v>
+        <v>5.6957430509501119</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>4.2327533637123578</v>
+        <v>5.9705266151515977</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>4.0876231743313838</v>
+        <v>5.403373338639736</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2012,23 +2012,23 @@
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>16.270053665197519</v>
+        <v>77.516614696715607</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.13187063212815422</v>
+        <v>0.81189348123287064</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>2.1661239725989826E-2</v>
+        <v>0.35014700259657378</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>39.630738559932787</v>
+        <v>58.646956703731725</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1651,34 +1651,34 @@
         <v>143</v>
       </c>
       <c r="B1" s="37">
-        <v>7.8548539758837528</v>
+        <v>7.908209390810466</v>
       </c>
       <c r="C1" s="37">
-        <v>14.819505825125047</v>
+        <v>15.220704057662301</v>
       </c>
       <c r="D1" s="37">
-        <v>6.0762197876987472</v>
+        <v>5.968808631341064</v>
       </c>
       <c r="E1" s="37">
-        <v>9.9591064651170917</v>
+        <v>9.9017630421611749</v>
       </c>
       <c r="F1" s="37">
-        <v>15.725214051100446</v>
+        <v>15.342493805003349</v>
       </c>
       <c r="G1" s="37">
-        <v>8.006412362379157</v>
+        <v>8.0970653227851361</v>
       </c>
       <c r="H1" s="37">
-        <v>5.6957430509501119</v>
+        <v>5.6266532508862817</v>
       </c>
       <c r="I1" s="37">
-        <v>5.9705266151515977</v>
+        <v>5.7817817238760387</v>
       </c>
       <c r="J1" s="37">
-        <v>5.403373338639736</v>
+        <v>5.4558515815297168</v>
       </c>
       <c r="K1" s="38">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L1" s="38">
         <v>1380</v>
@@ -1687,24 +1687,24 @@
         <v>54</v>
       </c>
       <c r="N1" s="39">
-        <v>77.516614696715607</v>
+        <v>77.445168047473601</v>
       </c>
       <c r="O1" s="39">
-        <v>0.81189348123287064</v>
+        <v>0.80858076049480587</v>
       </c>
       <c r="P1" s="39">
-        <v>0.35014700259657378</v>
+        <v>0.45840945409760864</v>
       </c>
       <c r="Q1" s="39">
-        <v>58.646956703731725</v>
+        <v>51.957593278994821</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.18695652173913044</v>
+        <v>0.19130434782608696</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.20930232558139536</v>
+        <v>0.20454545454545456</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1968,43 +1968,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>7.8548539758837528</v>
+        <v>7.908209390810466</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>14.819505825125047</v>
+        <v>15.220704057662301</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>6.0762197876987472</v>
+        <v>5.968808631341064</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>9.9591064651170917</v>
+        <v>9.9017630421611749</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>15.725214051100446</v>
+        <v>15.342493805003349</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>8.006412362379157</v>
+        <v>8.0970653227851361</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>5.6957430509501119</v>
+        <v>5.6266532508862817</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>5.9705266151515977</v>
+        <v>5.7817817238760387</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>5.403373338639736</v>
+        <v>5.4558515815297168</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2016,19 +2016,19 @@
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>77.516614696715607</v>
+        <v>77.445168047473601</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.81189348123287064</v>
+        <v>0.80858076049480587</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.35014700259657378</v>
+        <v>0.45840945409760864</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>58.646956703731725</v>
+        <v>51.957593278994821</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16908" windowHeight="6396" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843" firstSheet="10" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="150">
   <si>
     <t>Resources/Process</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Should be 100</t>
   </si>
   <si>
-    <t>TriageCore_2_Out</t>
-  </si>
-  <si>
     <t>arrive_2_Amb_WI</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>AMAU</t>
-  </si>
-  <si>
     <t>DNW</t>
   </si>
   <si>
@@ -403,15 +397,9 @@
     <t>Cat 5</t>
   </si>
   <si>
-    <t>From Data</t>
-  </si>
-  <si>
     <t>AMAU_2_SSU_discharge_admit</t>
   </si>
   <si>
-    <t>From Data of ED + AMAU</t>
-  </si>
-  <si>
     <t>PET (All-Non)</t>
   </si>
   <si>
@@ -502,23 +490,41 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Cat2</t>
-  </si>
-  <si>
-    <t>Cat3</t>
-  </si>
-  <si>
     <t>Renege time</t>
+  </si>
+  <si>
+    <t>conslt_2_Normal_ST_Tests</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>SSU</t>
+  </si>
+  <si>
+    <t>TriageCore_2_Med</t>
+  </si>
+  <si>
+    <t>TriageCore_2_NonMed</t>
+  </si>
+  <si>
+    <t>NonMed</t>
+  </si>
+  <si>
+    <t>TriageCore_2_ClinicalGp</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,14 +716,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,12 +799,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,12 +1040,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1136,21 +1130,21 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="18" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="19" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="18" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="19" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="18" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="19" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="18" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1158,7 +1152,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="18" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="17" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1182,13 +1176,13 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1211,18 +1205,12 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,13 +1255,12 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,91 +1607,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="41"/>
-    <col min="2" max="2" width="15" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" style="41" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.21875" style="41" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>7.908209390810466</v>
+        <v>10.182479605394718</v>
       </c>
       <c r="C1" s="37">
-        <v>15.220704057662301</v>
+        <v>16.723852743722311</v>
       </c>
       <c r="D1" s="37">
-        <v>5.968808631341064</v>
+        <v>8.6751965060141067</v>
       </c>
       <c r="E1" s="37">
-        <v>9.9017630421611749</v>
+        <v>11.654920157426707</v>
       </c>
       <c r="F1" s="37">
-        <v>15.342493805003349</v>
+        <v>15.432080391909578</v>
       </c>
       <c r="G1" s="37">
-        <v>8.0970653227851361</v>
+        <v>9.7509013006474508</v>
       </c>
       <c r="H1" s="37">
-        <v>5.6266532508862817</v>
+        <v>8.8314734312540484</v>
       </c>
       <c r="I1" s="37">
-        <v>5.7817817238760387</v>
+        <v>7.5711449165167357</v>
       </c>
       <c r="J1" s="37">
-        <v>5.4558515815297168</v>
+        <v>9.9674404065268121</v>
       </c>
       <c r="K1" s="38">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="L1" s="38">
-        <v>1380</v>
+        <v>876</v>
       </c>
       <c r="M1" s="38">
         <v>54</v>
       </c>
       <c r="N1" s="39">
-        <v>77.445168047473601</v>
+        <v>78.582416899308711</v>
       </c>
       <c r="O1" s="39">
-        <v>0.80858076049480587</v>
+        <v>0.70025083694110013</v>
       </c>
       <c r="P1" s="39">
-        <v>0.45840945409760864</v>
+        <v>0.43875399847568658</v>
       </c>
       <c r="Q1" s="39">
-        <v>51.957593278994821</v>
+        <v>49.512229926717481</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.19130434782608696</v>
+        <v>0.24771689497716895</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.20454545454545456</v>
+        <v>0.24884792626728111</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1968,47 +1957,47 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>7.908209390810466</v>
+        <v>10.182479605394718</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>15.220704057662301</v>
+        <v>16.723852743722311</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>5.968808631341064</v>
+        <v>8.6751965060141067</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>9.9017630421611749</v>
+        <v>11.654920157426707</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>15.342493805003349</v>
+        <v>15.432080391909578</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>8.0970653227851361</v>
+        <v>9.7509013006474508</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>5.6266532508862817</v>
+        <v>8.8314734312540484</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>5.7817817238760387</v>
+        <v>7.5711449165167357</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>5.4558515815297168</v>
+        <v>9.9674404065268121</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
-        <v>1380</v>
+        <v>876</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
@@ -2016,19 +2005,19 @@
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>77.445168047473601</v>
+        <v>78.582416899308711</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.80858076049480587</v>
+        <v>0.70025083694110013</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.45840945409760864</v>
+        <v>0.43875399847568658</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>51.957593278994821</v>
+        <v>49.512229926717481</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>
@@ -2073,58 +2062,58 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="G16" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="H16" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="I16" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="J16" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="K16" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="R16" s="35" t="s">
+      <c r="S16" s="35" t="s">
         <v>125</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2149,137 +2138,137 @@
     <col min="3" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="77">
+        <v>5</v>
+      </c>
+      <c r="C2" s="77">
+        <v>1</v>
+      </c>
+      <c r="D2" s="77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="79">
+      <c r="B3" s="77">
+        <v>10</v>
+      </c>
+      <c r="C3" s="77">
+        <v>2</v>
+      </c>
+      <c r="D3" s="77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="77">
+        <v>20</v>
+      </c>
+      <c r="C4" s="77">
+        <v>10</v>
+      </c>
+      <c r="D4" s="77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="77">
+        <v>10</v>
+      </c>
+      <c r="C5" s="77">
         <v>5</v>
       </c>
-      <c r="C2" s="79">
-        <v>1</v>
-      </c>
-      <c r="D2" s="79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="79">
+      <c r="D5" s="77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="77">
+        <v>30</v>
+      </c>
+      <c r="C6" s="77">
         <v>10</v>
       </c>
-      <c r="C3" s="79">
-        <v>2</v>
-      </c>
-      <c r="D3" s="79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="79">
-        <v>20</v>
-      </c>
-      <c r="C4" s="79">
+      <c r="D6" s="77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="77">
+        <v>30</v>
+      </c>
+      <c r="C7" s="77">
         <v>10</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D7" s="77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="77">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="79">
+      <c r="C8" s="77">
         <v>10</v>
       </c>
-      <c r="C5" s="79">
-        <v>5</v>
-      </c>
-      <c r="D5" s="79">
+      <c r="D8" s="77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="77">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="79">
-        <v>30</v>
-      </c>
-      <c r="C6" s="79">
+      <c r="C9" s="77">
         <v>10</v>
       </c>
-      <c r="D6" s="79">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="79">
-        <v>30</v>
-      </c>
-      <c r="C7" s="79">
-        <v>10</v>
-      </c>
-      <c r="D7" s="79">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="79">
-        <v>30</v>
-      </c>
-      <c r="C8" s="79">
-        <v>10</v>
-      </c>
-      <c r="D8" s="79">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="79">
-        <v>30</v>
-      </c>
-      <c r="C9" s="79">
-        <v>10</v>
-      </c>
-      <c r="D9" s="79">
+      <c r="D9" s="77">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2307,10 +2296,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2318,7 +2307,7 @@
       <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="82">
         <v>1</v>
       </c>
     </row>
@@ -2326,7 +2315,7 @@
       <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="82">
         <v>7</v>
       </c>
     </row>
@@ -2334,7 +2323,7 @@
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="82">
         <v>10</v>
       </c>
     </row>
@@ -2342,7 +2331,7 @@
       <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="82">
         <v>8</v>
       </c>
     </row>
@@ -2350,15 +2339,15 @@
       <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="84">
-        <v>3</v>
+      <c r="B6" s="82">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="82">
         <v>4</v>
       </c>
     </row>
@@ -2366,7 +2355,7 @@
       <c r="A8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="82">
         <v>14</v>
       </c>
     </row>
@@ -2374,7 +2363,7 @@
       <c r="A9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="82">
         <v>100</v>
       </c>
     </row>
@@ -2382,7 +2371,7 @@
       <c r="A10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="82">
         <v>4</v>
       </c>
     </row>
@@ -2390,7 +2379,7 @@
       <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="82">
         <v>23</v>
       </c>
     </row>
@@ -2398,63 +2387,63 @@
       <c r="A12" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="82">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="84">
+        <v>94</v>
+      </c>
+      <c r="B13" s="82">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="84">
+        <v>95</v>
+      </c>
+      <c r="B14" s="82">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="84">
+        <v>66</v>
+      </c>
+      <c r="B15" s="82">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="84">
+        <v>93</v>
+      </c>
+      <c r="B16" s="82">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="84">
+        <v>97</v>
+      </c>
+      <c r="B17" s="82">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="84">
+        <v>70</v>
+      </c>
+      <c r="B18" s="82">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="84">
+        <v>96</v>
+      </c>
+      <c r="B19" s="82">
         <v>10</v>
       </c>
     </row>
@@ -2482,60 +2471,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="103"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="103"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="103"/>
+      <c r="S1" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="86" t="s">
-        <v>146</v>
+      <c r="T1" s="101"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="82">
         <v>1</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="109">
-        <v>0</v>
-      </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109">
-        <v>0</v>
-      </c>
-      <c r="O2" s="109"/>
+        <v>130</v>
+      </c>
+      <c r="L2" s="104">
+        <v>0</v>
+      </c>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104">
+        <v>0</v>
+      </c>
+      <c r="O2" s="104"/>
       <c r="Q2" s="48">
         <v>12</v>
       </c>
@@ -2553,7 +2542,7 @@
       <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="82">
         <v>2</v>
       </c>
       <c r="I3" s="49">
@@ -2573,7 +2562,7 @@
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="82">
         <v>3</v>
       </c>
     </row>
@@ -2581,55 +2570,40 @@
       <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="82">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="84">
-        <v>4</v>
-      </c>
+      <c r="A6" s="58"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="84">
-        <v>4</v>
-      </c>
+      <c r="A7" s="58"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="82">
+        <f>AMAU!B14</f>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="84">
-        <v>100</v>
-      </c>
+      <c r="A9" s="58"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="84">
-        <v>4</v>
-      </c>
+      <c r="A10" s="58"/>
+      <c r="B10" s="82"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="82">
         <v>11</v>
       </c>
     </row>
@@ -2637,65 +2611,41 @@
       <c r="A12" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="84">
-        <v>10</v>
-      </c>
+      <c r="A13" s="58"/>
+      <c r="B13" s="82"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="84">
-        <v>10</v>
-      </c>
+      <c r="A14" s="58"/>
+      <c r="B14" s="82"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="84">
-        <v>100</v>
-      </c>
+      <c r="A15" s="58"/>
+      <c r="B15" s="82"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="84">
-        <v>3</v>
-      </c>
+      <c r="A16" s="58"/>
+      <c r="B16" s="82"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="84">
-        <v>10</v>
-      </c>
+      <c r="A17" s="58"/>
+      <c r="B17" s="82"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="84">
+        <v>70</v>
+      </c>
+      <c r="B18" s="82">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="84">
-        <v>10</v>
-      </c>
+      <c r="A19" s="58"/>
+      <c r="B19" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2733,22 +2683,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="F1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="53" t="s">
+      <c r="G1" s="53" t="s">
         <v>96</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3000,7 +2950,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="51">
         <v>0</v>
@@ -3023,7 +2973,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="51">
         <v>0</v>
@@ -3046,7 +2996,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="51">
         <v>0</v>
@@ -3069,7 +3019,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="51">
         <v>0</v>
@@ -3123,394 +3073,394 @@
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="67"/>
+      <c r="B1" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="66"/>
       <c r="D1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="67"/>
+      <c r="E1" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="66"/>
       <c r="G1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="88"/>
+      <c r="H1" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88">
         <v>1.25</v>
       </c>
       <c r="C3" s="48">
         <v>25</v>
       </c>
-      <c r="D3" s="78">
-        <v>0</v>
-      </c>
-      <c r="E3" s="90">
+      <c r="D3" s="76">
+        <v>0</v>
+      </c>
+      <c r="E3" s="88">
         <v>100</v>
       </c>
-      <c r="G3" s="78">
-        <v>0</v>
-      </c>
-      <c r="H3" s="90">
+      <c r="G3" s="76">
+        <v>0</v>
+      </c>
+      <c r="H3" s="88">
         <v>90.7</v>
       </c>
-      <c r="I3" s="91" t="s">
-        <v>77</v>
+      <c r="I3" s="89" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
         <v>98.75</v>
       </c>
       <c r="C4" s="48">
         <v>75</v>
       </c>
-      <c r="D4" s="78">
-        <v>1</v>
-      </c>
-      <c r="E4" s="90">
-        <v>0</v>
-      </c>
-      <c r="G4" s="78">
-        <v>1</v>
-      </c>
-      <c r="H4" s="90">
+      <c r="D4" s="76">
+        <v>1</v>
+      </c>
+      <c r="E4" s="88">
+        <v>0</v>
+      </c>
+      <c r="G4" s="76">
+        <v>1</v>
+      </c>
+      <c r="H4" s="88">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="76">
+        <v>2</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="D5" s="76">
+        <v>2</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="G5" s="76">
+        <v>2</v>
+      </c>
+      <c r="H5" s="88">
+        <v>0</v>
+      </c>
+      <c r="I5" s="89" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
-        <v>2</v>
-      </c>
-      <c r="B5" s="90"/>
-      <c r="D5" s="78">
-        <v>2</v>
-      </c>
-      <c r="E5" s="90"/>
-      <c r="G5" s="78">
-        <v>2</v>
-      </c>
-      <c r="H5" s="90">
-        <v>0</v>
-      </c>
-      <c r="I5" s="91" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+      <c r="A6" s="76">
         <v>3</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="D6" s="78">
+      <c r="B6" s="88"/>
+      <c r="D6" s="76">
         <v>3</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="G6" s="78">
+      <c r="E6" s="88"/>
+      <c r="G6" s="76">
         <v>3</v>
       </c>
-      <c r="H6" s="90">
-        <v>0</v>
-      </c>
-      <c r="I6" s="91" t="s">
-        <v>56</v>
+      <c r="H6" s="88">
+        <v>0</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="76">
         <v>4</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="D7" s="78">
+      <c r="B7" s="88"/>
+      <c r="D7" s="76">
         <v>4</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="G7" s="78">
+      <c r="E7" s="88"/>
+      <c r="G7" s="76">
         <v>4</v>
       </c>
-      <c r="H7" s="90"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="76">
         <v>5</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="D8" s="78">
+      <c r="B8" s="88"/>
+      <c r="D8" s="76">
         <v>5</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="G8" s="78">
+      <c r="E8" s="88"/>
+      <c r="G8" s="76">
         <v>5</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="76">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="D9" s="78">
+      <c r="B9" s="88"/>
+      <c r="D9" s="76">
         <v>6</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="G9" s="78">
+      <c r="E9" s="88"/>
+      <c r="G9" s="76">
         <v>6</v>
       </c>
-      <c r="H9" s="90"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="76">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="D10" s="78">
+      <c r="B10" s="88"/>
+      <c r="D10" s="76">
         <v>7</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="G10" s="78">
+      <c r="E10" s="88"/>
+      <c r="G10" s="76">
         <v>7</v>
       </c>
-      <c r="H10" s="90"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="D11" s="78">
+      <c r="B11" s="88"/>
+      <c r="D11" s="76">
         <v>8</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="G11" s="78">
+      <c r="E11" s="88"/>
+      <c r="G11" s="76">
         <v>8</v>
       </c>
-      <c r="H11" s="90"/>
+      <c r="H11" s="88"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="76">
         <v>9</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="D12" s="78">
+      <c r="B12" s="88"/>
+      <c r="D12" s="76">
         <v>9</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="G12" s="78">
+      <c r="E12" s="88"/>
+      <c r="G12" s="76">
         <v>9</v>
       </c>
-      <c r="H12" s="90"/>
+      <c r="H12" s="88"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="D13" s="78">
+      <c r="B13" s="88"/>
+      <c r="D13" s="76">
         <v>10</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="G13" s="78">
+      <c r="E13" s="88"/>
+      <c r="G13" s="76">
         <v>10</v>
       </c>
-      <c r="H13" s="90"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="D14" s="78">
+      <c r="B14" s="88"/>
+      <c r="D14" s="76">
         <v>11</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="G14" s="78">
+      <c r="E14" s="88"/>
+      <c r="G14" s="76">
         <v>11</v>
       </c>
-      <c r="H14" s="90"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="D15" s="78">
+      <c r="B15" s="88"/>
+      <c r="D15" s="76">
         <v>12</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="G15" s="78">
+      <c r="E15" s="88"/>
+      <c r="G15" s="76">
         <v>12</v>
       </c>
-      <c r="H15" s="90"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="D16" s="78">
+      <c r="B16" s="88"/>
+      <c r="D16" s="76">
         <v>13</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="G16" s="78">
+      <c r="E16" s="88"/>
+      <c r="G16" s="76">
         <v>13</v>
       </c>
-      <c r="H16" s="90"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="D17" s="78">
+      <c r="B17" s="88"/>
+      <c r="D17" s="76">
         <v>14</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="G17" s="78">
+      <c r="E17" s="88"/>
+      <c r="G17" s="76">
         <v>14</v>
       </c>
-      <c r="H17" s="90"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="D18" s="78">
+      <c r="B18" s="88"/>
+      <c r="D18" s="76">
         <v>15</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="G18" s="78">
+      <c r="E18" s="88"/>
+      <c r="G18" s="76">
         <v>15</v>
       </c>
-      <c r="H18" s="90"/>
+      <c r="H18" s="88"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="D19" s="78">
+      <c r="B19" s="88"/>
+      <c r="D19" s="76">
         <v>16</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="G19" s="78">
+      <c r="E19" s="88"/>
+      <c r="G19" s="76">
         <v>16</v>
       </c>
-      <c r="H19" s="90"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="D20" s="78">
+      <c r="B20" s="88"/>
+      <c r="D20" s="76">
         <v>17</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="G20" s="78">
+      <c r="E20" s="88"/>
+      <c r="G20" s="76">
         <v>17</v>
       </c>
-      <c r="H20" s="90"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="D21" s="78">
+      <c r="B21" s="88"/>
+      <c r="D21" s="76">
         <v>18</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="G21" s="78">
+      <c r="E21" s="88"/>
+      <c r="G21" s="76">
         <v>18</v>
       </c>
-      <c r="H21" s="90"/>
+      <c r="H21" s="88"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="D22" s="78">
+      <c r="B22" s="88"/>
+      <c r="D22" s="76">
         <v>19</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="G22" s="78">
+      <c r="E22" s="88"/>
+      <c r="G22" s="76">
         <v>19</v>
       </c>
-      <c r="H22" s="90"/>
+      <c r="H22" s="88"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="D23" s="78">
+      <c r="B23" s="88"/>
+      <c r="D23" s="76">
         <v>20</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="G23" s="78">
+      <c r="E23" s="88"/>
+      <c r="G23" s="76">
         <v>20</v>
       </c>
-      <c r="H23" s="90"/>
+      <c r="H23" s="88"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
         <v>100</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="90">
         <f>SUM(E3:E23)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="88" t="s">
+      <c r="G24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="90">
         <f>SUM(H3:H23)</f>
         <v>100</v>
       </c>
@@ -3534,254 +3484,432 @@
   <cols>
     <col min="1" max="1" width="13.44140625" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="48"/>
+    <col min="3" max="3" width="8.88671875" style="48"/>
+    <col min="4" max="4" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="48"/>
+    <col min="7" max="7" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="67"/>
+      <c r="B1" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="H2" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>113</v>
+      <c r="C2" s="66"/>
+      <c r="D2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90">
-        <v>1.3</v>
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C3" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="76">
+        <v>0</v>
+      </c>
+      <c r="E3" s="88">
+        <v>0</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="76">
+        <v>0</v>
+      </c>
+      <c r="H3" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="76">
+        <v>1</v>
+      </c>
+      <c r="E4" s="88">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="76">
+        <v>1</v>
+      </c>
+      <c r="H4" s="88">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="76">
+        <v>2</v>
+      </c>
+      <c r="B5" s="88">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="90">
-        <v>1.7</v>
-      </c>
-      <c r="H3" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="I3" s="94">
-        <v>1.250882679309997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
-        <v>25.9</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="D5" s="76">
+        <v>2</v>
+      </c>
+      <c r="E5" s="88">
+        <v>0.46</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="76">
+        <v>2</v>
+      </c>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
+        <v>3</v>
+      </c>
+      <c r="B6" s="88">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="F4" s="48">
+      <c r="D6" s="76">
+        <v>3</v>
+      </c>
+      <c r="E6" s="88">
+        <v>0.35</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="76">
+        <v>3</v>
+      </c>
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
+        <v>4</v>
+      </c>
+      <c r="B7" s="88">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="76">
+        <v>4</v>
+      </c>
+      <c r="E7" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="76">
+        <v>4</v>
+      </c>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="76">
+        <v>5</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="D8" s="76">
+        <v>5</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="G8" s="76">
+        <v>5</v>
+      </c>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="76">
+        <v>6</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="D9" s="76">
+        <v>6</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="G9" s="76">
+        <v>6</v>
+      </c>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="76">
+        <v>7</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="D10" s="76">
+        <v>7</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="G10" s="76">
+        <v>7</v>
+      </c>
+      <c r="H10" s="88"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="76">
+        <v>8</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="D11" s="76">
+        <v>8</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="G11" s="76">
+        <v>8</v>
+      </c>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="76">
+        <v>9</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="D12" s="76">
+        <v>9</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="G12" s="76">
+        <v>9</v>
+      </c>
+      <c r="H12" s="88"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="H4" s="90">
-        <v>25.8</v>
-      </c>
-      <c r="I4" s="94">
-        <v>0.25945727832139615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
-        <v>2</v>
-      </c>
-      <c r="B5" s="90">
-        <v>57.4</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="90">
-        <v>41</v>
-      </c>
-      <c r="F5" s="48">
-        <v>35</v>
-      </c>
-      <c r="H5" s="90">
-        <v>55.5</v>
-      </c>
-      <c r="I5" s="94">
-        <v>0.57389286795117522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
-        <v>3</v>
-      </c>
-      <c r="B6" s="90">
-        <v>13.5</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="90">
-        <v>56.5</v>
-      </c>
-      <c r="F6" s="48">
-        <v>55</v>
-      </c>
-      <c r="H6" s="90">
-        <v>15.2</v>
-      </c>
-      <c r="I6" s="94">
-        <v>0.13477252093210934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
-        <v>4</v>
-      </c>
-      <c r="B7" s="90">
-        <v>1.9</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="90">
-        <v>2.1</v>
-      </c>
-      <c r="I7" s="94">
-        <v>1.9267628366791082E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
-        <v>5</v>
-      </c>
-      <c r="B8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
-        <v>6</v>
-      </c>
-      <c r="B9" s="90"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
-        <v>7</v>
-      </c>
-      <c r="B10" s="90"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
-        <v>8</v>
-      </c>
-      <c r="B11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
-        <v>9</v>
-      </c>
-      <c r="B12" s="90"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="B13" s="88"/>
+      <c r="D13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="E13" s="88"/>
+      <c r="G13" s="76">
+        <v>10</v>
+      </c>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
-      <c r="B14" s="90"/>
+      <c r="B14" s="88"/>
+      <c r="D14" s="76">
+        <v>11</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="G14" s="76">
+        <v>11</v>
+      </c>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
+      <c r="B15" s="88"/>
+      <c r="D15" s="76">
+        <v>12</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="G15" s="76">
+        <v>12</v>
+      </c>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="B16" s="88"/>
+      <c r="D16" s="76">
+        <v>13</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="G16" s="76">
+        <v>13</v>
+      </c>
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="B17" s="88"/>
+      <c r="D17" s="76">
+        <v>14</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="G17" s="76">
+        <v>14</v>
+      </c>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="B18" s="88"/>
+      <c r="D18" s="76">
+        <v>15</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="G18" s="76">
+        <v>15</v>
+      </c>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="B19" s="88"/>
+      <c r="D19" s="76">
+        <v>16</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="G19" s="76">
+        <v>16</v>
+      </c>
+      <c r="H19" s="88"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="B20" s="88"/>
+      <c r="D20" s="76">
+        <v>17</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="G20" s="76">
+        <v>17</v>
+      </c>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="90"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="B21" s="88"/>
+      <c r="D21" s="76">
+        <v>18</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="G21" s="76">
+        <v>18</v>
+      </c>
+      <c r="H21" s="88"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="90"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="B22" s="88"/>
+      <c r="D22" s="76">
+        <v>19</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="G22" s="76">
+        <v>19</v>
+      </c>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="B23" s="88"/>
+      <c r="D23" s="76">
+        <v>20</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="G23" s="76">
+        <v>20</v>
+      </c>
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="90">
+        <f>SUM(E3:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="90">
+        <f>SUM(H3:H23)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3821,7 +3949,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>26</v>
@@ -3871,7 +3999,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3894,7 +4022,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3913,7 +4041,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3932,7 +4060,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4216,385 +4344,385 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="91" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="48"/>
     <col min="4" max="4" width="13.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="95" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="91" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" style="48"/>
     <col min="8" max="8" width="13.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="91" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="87" t="s">
-        <v>80</v>
+      <c r="E1" s="85" t="s">
+        <v>79</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="87" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88">
         <v>95.6</v>
       </c>
-      <c r="D3" s="78">
-        <v>0</v>
-      </c>
-      <c r="E3" s="90">
+      <c r="D3" s="76">
+        <v>0</v>
+      </c>
+      <c r="E3" s="88">
         <v>11.9</v>
       </c>
-      <c r="H3" s="78">
-        <v>0</v>
-      </c>
-      <c r="I3" s="90">
+      <c r="H3" s="76">
+        <v>0</v>
+      </c>
+      <c r="I3" s="88">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D4" s="78">
-        <v>1</v>
-      </c>
-      <c r="E4" s="90">
+      <c r="D4" s="76">
+        <v>1</v>
+      </c>
+      <c r="E4" s="88">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H4" s="78">
-        <v>1</v>
-      </c>
-      <c r="I4" s="90">
+      <c r="H4" s="76">
+        <v>1</v>
+      </c>
+      <c r="I4" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
+      <c r="A5" s="76">
         <v>2</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="D5" s="78">
+      <c r="B5" s="88"/>
+      <c r="D5" s="76">
         <v>2</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="88">
         <v>84</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="76">
         <v>2</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="88">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+      <c r="A6" s="76">
         <v>3</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="D6" s="78">
+      <c r="B6" s="88"/>
+      <c r="D6" s="76">
         <v>3</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="H6" s="78">
+      <c r="E6" s="88"/>
+      <c r="H6" s="76">
         <v>3</v>
       </c>
-      <c r="I6" s="90"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="76">
         <v>4</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="D7" s="78">
+      <c r="B7" s="88"/>
+      <c r="D7" s="76">
         <v>4</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="H7" s="78">
+      <c r="E7" s="88"/>
+      <c r="H7" s="76">
         <v>4</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="76">
         <v>5</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="D8" s="78">
+      <c r="B8" s="88"/>
+      <c r="D8" s="76">
         <v>5</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="H8" s="78">
+      <c r="E8" s="88"/>
+      <c r="H8" s="76">
         <v>5</v>
       </c>
-      <c r="I8" s="90"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="76">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="D9" s="78">
+      <c r="B9" s="88"/>
+      <c r="D9" s="76">
         <v>6</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="H9" s="78">
+      <c r="E9" s="88"/>
+      <c r="H9" s="76">
         <v>6</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="76">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="D10" s="78">
+      <c r="B10" s="88"/>
+      <c r="D10" s="76">
         <v>7</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="H10" s="78">
+      <c r="E10" s="88"/>
+      <c r="H10" s="76">
         <v>7</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="D11" s="78">
+      <c r="B11" s="88"/>
+      <c r="D11" s="76">
         <v>8</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="H11" s="78">
+      <c r="E11" s="88"/>
+      <c r="H11" s="76">
         <v>8</v>
       </c>
-      <c r="I11" s="90"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="76">
         <v>9</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="D12" s="78">
+      <c r="B12" s="88"/>
+      <c r="D12" s="76">
         <v>9</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="H12" s="78">
+      <c r="E12" s="88"/>
+      <c r="H12" s="76">
         <v>9</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="D13" s="78">
+      <c r="B13" s="88"/>
+      <c r="D13" s="76">
         <v>10</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="H13" s="78">
+      <c r="E13" s="88"/>
+      <c r="H13" s="76">
         <v>10</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="88"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="D14" s="78">
+      <c r="B14" s="88"/>
+      <c r="D14" s="76">
         <v>11</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="H14" s="78">
+      <c r="E14" s="88"/>
+      <c r="H14" s="76">
         <v>11</v>
       </c>
-      <c r="I14" s="90"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="D15" s="78">
+      <c r="B15" s="88"/>
+      <c r="D15" s="76">
         <v>12</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="H15" s="78">
+      <c r="E15" s="88"/>
+      <c r="H15" s="76">
         <v>12</v>
       </c>
-      <c r="I15" s="90"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="D16" s="78">
+      <c r="B16" s="88"/>
+      <c r="D16" s="76">
         <v>13</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="H16" s="78">
+      <c r="E16" s="88"/>
+      <c r="H16" s="76">
         <v>13</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="D17" s="78">
+      <c r="B17" s="88"/>
+      <c r="D17" s="76">
         <v>14</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="H17" s="78">
+      <c r="E17" s="88"/>
+      <c r="H17" s="76">
         <v>14</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="D18" s="78">
+      <c r="B18" s="88"/>
+      <c r="D18" s="76">
         <v>15</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="H18" s="78">
+      <c r="E18" s="88"/>
+      <c r="H18" s="76">
         <v>15</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="D19" s="78">
+      <c r="B19" s="88"/>
+      <c r="D19" s="76">
         <v>16</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="H19" s="78">
+      <c r="E19" s="88"/>
+      <c r="H19" s="76">
         <v>16</v>
       </c>
-      <c r="I19" s="90"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="D20" s="78">
+      <c r="B20" s="88"/>
+      <c r="D20" s="76">
         <v>17</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="H20" s="78">
+      <c r="E20" s="88"/>
+      <c r="H20" s="76">
         <v>17</v>
       </c>
-      <c r="I20" s="90"/>
+      <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="D21" s="78">
+      <c r="B21" s="88"/>
+      <c r="D21" s="76">
         <v>18</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="H21" s="78">
+      <c r="E21" s="88"/>
+      <c r="H21" s="76">
         <v>18</v>
       </c>
-      <c r="I21" s="90"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="D22" s="78">
+      <c r="B22" s="88"/>
+      <c r="D22" s="76">
         <v>19</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="H22" s="78">
+      <c r="E22" s="88"/>
+      <c r="H22" s="76">
         <v>19</v>
       </c>
-      <c r="I22" s="90"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="D23" s="78">
+      <c r="B23" s="88"/>
+      <c r="D23" s="76">
         <v>20</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="H23" s="78">
+      <c r="E23" s="88"/>
+      <c r="H23" s="76">
         <v>20</v>
       </c>
-      <c r="I23" s="90"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
         <v>100</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="90">
         <f>SUM(E3:E23)</f>
         <v>100</v>
       </c>
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="92">
+      <c r="I24" s="90">
         <f>SUM(I3:I23)</f>
         <v>100</v>
       </c>
@@ -4641,7 +4769,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>26</v>
@@ -4659,7 +4787,7 @@
         <v>26</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5519,7 +5647,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5537,406 +5665,395 @@
     <col min="10" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="67"/>
+      <c r="F1" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="66"/>
       <c r="H1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="67"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88">
         <v>40</v>
       </c>
       <c r="C3" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="76">
+        <v>0</v>
+      </c>
+      <c r="F3" s="88">
+        <v>51.7</v>
+      </c>
+      <c r="H3" s="76">
+        <v>0</v>
+      </c>
+      <c r="I3" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
+        <v>58</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="76">
+        <v>1</v>
+      </c>
+      <c r="F4" s="88">
+        <v>48.3</v>
+      </c>
+      <c r="H4" s="76">
+        <v>1</v>
+      </c>
+      <c r="I4" s="88">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="76">
+        <v>2</v>
+      </c>
+      <c r="B5" s="88">
+        <v>2</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="78">
-        <v>0</v>
-      </c>
-      <c r="F3" s="90">
-        <v>51.7</v>
-      </c>
-      <c r="H3" s="78">
-        <v>0</v>
-      </c>
-      <c r="I3" s="90">
-        <v>1</v>
-      </c>
-      <c r="J3" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
-        <v>58</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="78">
-        <v>1</v>
-      </c>
-      <c r="F4" s="90">
-        <v>48.3</v>
-      </c>
-      <c r="H4" s="78">
-        <v>1</v>
-      </c>
-      <c r="I4" s="90">
-        <v>61</v>
-      </c>
-      <c r="J4" s="97">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
+      <c r="E5" s="76">
         <v>2</v>
       </c>
-      <c r="B5" s="90">
+      <c r="F5" s="88"/>
+      <c r="H5" s="76">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="78">
-        <v>2</v>
-      </c>
-      <c r="F5" s="90"/>
-      <c r="H5" s="78">
-        <v>2</v>
-      </c>
-      <c r="I5" s="90">
+      <c r="I5" s="88">
         <v>38</v>
       </c>
-      <c r="J5" s="97">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
         <v>3</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="88">
         <v>0</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="78">
+        <v>55</v>
+      </c>
+      <c r="E6" s="76">
         <v>3</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="H6" s="78">
+      <c r="F6" s="88"/>
+      <c r="H6" s="76">
         <v>3</v>
       </c>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="I6" s="88"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
         <v>4</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="E7" s="78">
+      <c r="B7" s="88"/>
+      <c r="E7" s="76">
         <v>4</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="H7" s="78">
+      <c r="F7" s="88"/>
+      <c r="H7" s="76">
         <v>4</v>
       </c>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="I7" s="88"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="76">
         <v>5</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="E8" s="78">
+      <c r="B8" s="88"/>
+      <c r="E8" s="76">
         <v>5</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="H8" s="78">
+      <c r="F8" s="88"/>
+      <c r="H8" s="76">
         <v>5</v>
       </c>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="I8" s="88"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="76">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="E9" s="78">
+      <c r="B9" s="88"/>
+      <c r="E9" s="76">
         <v>6</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="H9" s="78">
+      <c r="F9" s="88"/>
+      <c r="H9" s="76">
         <v>6</v>
       </c>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="I9" s="88"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="76">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="E10" s="78">
+      <c r="B10" s="88"/>
+      <c r="E10" s="76">
         <v>7</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="H10" s="78">
+      <c r="F10" s="88"/>
+      <c r="H10" s="76">
         <v>7</v>
       </c>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="I10" s="88"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="E11" s="78">
+      <c r="B11" s="88"/>
+      <c r="E11" s="76">
         <v>8</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="H11" s="78">
+      <c r="F11" s="88"/>
+      <c r="H11" s="76">
         <v>8</v>
       </c>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="I11" s="88"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="76">
         <v>9</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="E12" s="78">
+      <c r="B12" s="88"/>
+      <c r="E12" s="76">
         <v>9</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="H12" s="78">
+      <c r="F12" s="88"/>
+      <c r="H12" s="76">
         <v>9</v>
       </c>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="E13" s="78">
+      <c r="B13" s="88"/>
+      <c r="E13" s="76">
         <v>10</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="H13" s="78">
+      <c r="F13" s="88"/>
+      <c r="H13" s="76">
         <v>10</v>
       </c>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="E14" s="78">
+      <c r="B14" s="88"/>
+      <c r="E14" s="76">
         <v>11</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="H14" s="78">
+      <c r="F14" s="88"/>
+      <c r="H14" s="76">
         <v>11</v>
       </c>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="E15" s="78">
+      <c r="B15" s="88"/>
+      <c r="E15" s="76">
         <v>12</v>
       </c>
-      <c r="F15" s="90"/>
-      <c r="H15" s="78">
+      <c r="F15" s="88"/>
+      <c r="H15" s="76">
         <v>12</v>
       </c>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="E16" s="78">
+      <c r="B16" s="88"/>
+      <c r="E16" s="76">
         <v>13</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="H16" s="78">
+      <c r="F16" s="88"/>
+      <c r="H16" s="76">
         <v>13</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="E17" s="78">
+      <c r="B17" s="88"/>
+      <c r="E17" s="76">
         <v>14</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="H17" s="78">
+      <c r="F17" s="88"/>
+      <c r="H17" s="76">
         <v>14</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="E18" s="78">
+      <c r="B18" s="88"/>
+      <c r="E18" s="76">
         <v>15</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="H18" s="78">
+      <c r="F18" s="88"/>
+      <c r="H18" s="76">
         <v>15</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="E19" s="78">
+      <c r="B19" s="88"/>
+      <c r="E19" s="76">
         <v>16</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="H19" s="78">
+      <c r="F19" s="88"/>
+      <c r="H19" s="76">
         <v>16</v>
       </c>
-      <c r="I19" s="90"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="E20" s="78">
+      <c r="B20" s="88"/>
+      <c r="E20" s="76">
         <v>17</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="H20" s="78">
+      <c r="F20" s="88"/>
+      <c r="H20" s="76">
         <v>17</v>
       </c>
-      <c r="I20" s="90"/>
+      <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="E21" s="78">
+      <c r="B21" s="88"/>
+      <c r="E21" s="76">
         <v>18</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="H21" s="78">
+      <c r="F21" s="88"/>
+      <c r="H21" s="76">
         <v>18</v>
       </c>
-      <c r="I21" s="90"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="E22" s="78">
+      <c r="B22" s="88"/>
+      <c r="E22" s="76">
         <v>19</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="H22" s="78">
+      <c r="F22" s="88"/>
+      <c r="H22" s="76">
         <v>19</v>
       </c>
-      <c r="I22" s="90"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="E23" s="78">
+      <c r="B23" s="88"/>
+      <c r="E23" s="76">
         <v>20</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="H23" s="78">
+      <c r="F23" s="88"/>
+      <c r="H23" s="76">
         <v>20</v>
       </c>
-      <c r="I23" s="90"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
         <v>100</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="E24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="90">
         <f>SUM(F3:F23)</f>
         <v>100</v>
       </c>
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="92">
+      <c r="I24" s="90">
         <f>SUM(I3:I23)</f>
         <v>100</v>
       </c>
@@ -6516,7 +6633,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="18" t="s">
@@ -6530,14 +6647,14 @@
         <v>26</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -7260,270 +7377,270 @@
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="67"/>
+      <c r="F1" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88">
         <v>6</v>
       </c>
-      <c r="E3" s="78">
-        <v>0</v>
-      </c>
-      <c r="F3" s="90">
+      <c r="E3" s="76">
+        <v>0</v>
+      </c>
+      <c r="F3" s="88">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
         <v>92</v>
       </c>
-      <c r="E4" s="78">
-        <v>1</v>
-      </c>
-      <c r="F4" s="90">
+      <c r="E4" s="76">
+        <v>1</v>
+      </c>
+      <c r="F4" s="88">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
+      <c r="A5" s="76">
         <v>2</v>
       </c>
-      <c r="B5" s="90">
-        <v>0</v>
-      </c>
-      <c r="E5" s="78">
+      <c r="B5" s="88">
+        <v>0</v>
+      </c>
+      <c r="E5" s="76">
         <v>2</v>
       </c>
-      <c r="F5" s="90"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+      <c r="A6" s="76">
         <v>3</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="88">
         <v>2</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="76">
         <v>3</v>
       </c>
-      <c r="F6" s="90"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="76">
         <v>4</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="E7" s="78">
+      <c r="B7" s="88"/>
+      <c r="E7" s="76">
         <v>4</v>
       </c>
-      <c r="F7" s="90"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="76">
         <v>5</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="E8" s="78">
+      <c r="B8" s="88"/>
+      <c r="E8" s="76">
         <v>5</v>
       </c>
-      <c r="F8" s="90"/>
+      <c r="F8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="76">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="E9" s="78">
+      <c r="B9" s="88"/>
+      <c r="E9" s="76">
         <v>6</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="76">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="E10" s="78">
+      <c r="B10" s="88"/>
+      <c r="E10" s="76">
         <v>7</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="E11" s="78">
+      <c r="B11" s="88"/>
+      <c r="E11" s="76">
         <v>8</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="76">
         <v>9</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="E12" s="78">
+      <c r="B12" s="88"/>
+      <c r="E12" s="76">
         <v>9</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="E13" s="78">
+      <c r="B13" s="88"/>
+      <c r="E13" s="76">
         <v>10</v>
       </c>
-      <c r="F13" s="90"/>
+      <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="E14" s="78">
+      <c r="B14" s="88"/>
+      <c r="E14" s="76">
         <v>11</v>
       </c>
-      <c r="F14" s="90"/>
+      <c r="F14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="E15" s="78">
+      <c r="B15" s="88"/>
+      <c r="E15" s="76">
         <v>12</v>
       </c>
-      <c r="F15" s="90"/>
+      <c r="F15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="E16" s="78">
+      <c r="B16" s="88"/>
+      <c r="E16" s="76">
         <v>13</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="E17" s="78">
+      <c r="B17" s="88"/>
+      <c r="E17" s="76">
         <v>14</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="88"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="E18" s="78">
+      <c r="B18" s="88"/>
+      <c r="E18" s="76">
         <v>15</v>
       </c>
-      <c r="F18" s="90"/>
+      <c r="F18" s="88"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="E19" s="78">
+      <c r="B19" s="88"/>
+      <c r="E19" s="76">
         <v>16</v>
       </c>
-      <c r="F19" s="90"/>
+      <c r="F19" s="88"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="E20" s="78">
+      <c r="B20" s="88"/>
+      <c r="E20" s="76">
         <v>17</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="88"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="E21" s="78">
+      <c r="B21" s="88"/>
+      <c r="E21" s="76">
         <v>18</v>
       </c>
-      <c r="F21" s="90"/>
+      <c r="F21" s="88"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="E22" s="78">
+      <c r="B22" s="88"/>
+      <c r="E22" s="76">
         <v>19</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="88"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="E23" s="78">
+      <c r="B23" s="88"/>
+      <c r="E23" s="76">
         <v>20</v>
       </c>
-      <c r="F23" s="90"/>
+      <c r="F23" s="88"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
         <v>100</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="E24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="90">
         <f>SUM(F3:F23)</f>
         <v>100</v>
       </c>
@@ -7559,7 +7676,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="18" t="s">
@@ -7573,14 +7690,14 @@
         <v>26</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -8284,9 +8401,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8302,397 +8421,410 @@
     <col min="10" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="67"/>
+      <c r="F1" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="66"/>
       <c r="H1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="87" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88">
         <v>40</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="E3" s="76">
+        <v>0</v>
+      </c>
+      <c r="F3" s="88">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="76">
+        <v>0</v>
+      </c>
+      <c r="I3" s="88">
+        <v>0.45</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
+        <v>58</v>
+      </c>
+      <c r="E4" s="76">
+        <v>1</v>
+      </c>
+      <c r="F4" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="78">
-        <v>0</v>
-      </c>
-      <c r="F3" s="90">
-        <v>51.7</v>
-      </c>
-      <c r="H3" s="78">
-        <v>0</v>
-      </c>
-      <c r="I3" s="90">
+      <c r="H4" s="76">
+        <v>1</v>
+      </c>
+      <c r="I4" s="88">
+        <v>0.12</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="76">
+        <v>2</v>
+      </c>
+      <c r="B5" s="88">
+        <v>2</v>
+      </c>
+      <c r="E5" s="76">
+        <v>2</v>
+      </c>
+      <c r="F5" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="76">
+        <v>2</v>
+      </c>
+      <c r="I5" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
+        <v>3</v>
+      </c>
+      <c r="B6" s="88">
+        <v>0</v>
+      </c>
+      <c r="E6" s="76">
+        <v>3</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="H6" s="76">
+        <v>3</v>
+      </c>
+      <c r="I6" s="88">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
+        <v>4</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="E7" s="76">
+        <v>4</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="H7" s="76">
+        <v>4</v>
+      </c>
+      <c r="I7" s="88"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="76">
+        <v>5</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="E8" s="76">
+        <v>5</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="H8" s="76">
+        <v>5</v>
+      </c>
+      <c r="I8" s="88"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="76">
+        <v>6</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="E9" s="76">
+        <v>6</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="H9" s="76">
+        <v>6</v>
+      </c>
+      <c r="I9" s="88"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="76">
+        <v>7</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="E10" s="76">
+        <v>7</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="H10" s="76">
+        <v>7</v>
+      </c>
+      <c r="I10" s="88"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="76">
+        <v>8</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="E11" s="76">
+        <v>8</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="H11" s="76">
+        <v>8</v>
+      </c>
+      <c r="I11" s="88"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="76">
+        <v>9</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="E12" s="76">
+        <v>9</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="H12" s="76">
+        <v>9</v>
+      </c>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="76">
+        <v>10</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="E13" s="76">
+        <v>10</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="H13" s="76">
+        <v>10</v>
+      </c>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="76">
+        <v>11</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="E14" s="76">
+        <v>11</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="H14" s="76">
+        <v>11</v>
+      </c>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="76">
+        <v>12</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="E15" s="76">
+        <v>12</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="H15" s="76">
+        <v>12</v>
+      </c>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="76">
+        <v>13</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="E16" s="76">
+        <v>13</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="H16" s="76">
+        <v>13</v>
+      </c>
+      <c r="I16" s="88"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="76">
+        <v>14</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="E17" s="76">
+        <v>14</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="H17" s="76">
+        <v>14</v>
+      </c>
+      <c r="I17" s="88"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="76">
+        <v>15</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="E18" s="76">
+        <v>15</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="H18" s="76">
+        <v>15</v>
+      </c>
+      <c r="I18" s="88"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="76">
+        <v>16</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="E19" s="76">
+        <v>16</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="H19" s="76">
+        <v>16</v>
+      </c>
+      <c r="I19" s="88"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="76">
+        <v>17</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="E20" s="76">
+        <v>17</v>
+      </c>
+      <c r="F20" s="88"/>
+      <c r="H20" s="76">
+        <v>17</v>
+      </c>
+      <c r="I20" s="88"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
-        <v>58</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="78">
-        <v>1</v>
-      </c>
-      <c r="F4" s="90">
-        <v>48.3</v>
-      </c>
-      <c r="H4" s="78">
-        <v>1</v>
-      </c>
-      <c r="I4" s="90">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
-        <v>2</v>
-      </c>
-      <c r="B5" s="90">
-        <v>2</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="78">
-        <v>2</v>
-      </c>
-      <c r="F5" s="90"/>
-      <c r="H5" s="78">
-        <v>2</v>
-      </c>
-      <c r="I5" s="90">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
-        <v>3</v>
-      </c>
-      <c r="B6" s="90">
-        <v>0</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="78">
-        <v>3</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="H6" s="78">
-        <v>3</v>
-      </c>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
-        <v>4</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="E7" s="78">
-        <v>4</v>
-      </c>
-      <c r="F7" s="90"/>
-      <c r="H7" s="78">
-        <v>4</v>
-      </c>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
-        <v>5</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="E8" s="78">
-        <v>5</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="H8" s="78">
-        <v>5</v>
-      </c>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
-        <v>6</v>
-      </c>
-      <c r="B9" s="90"/>
-      <c r="E9" s="78">
-        <v>6</v>
-      </c>
-      <c r="F9" s="90"/>
-      <c r="H9" s="78">
-        <v>6</v>
-      </c>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
-        <v>7</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="E10" s="78">
-        <v>7</v>
-      </c>
-      <c r="F10" s="90"/>
-      <c r="H10" s="78">
-        <v>7</v>
-      </c>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
-        <v>8</v>
-      </c>
-      <c r="B11" s="90"/>
-      <c r="E11" s="78">
-        <v>8</v>
-      </c>
-      <c r="F11" s="90"/>
-      <c r="H11" s="78">
-        <v>8</v>
-      </c>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
-        <v>9</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="E12" s="78">
-        <v>9</v>
-      </c>
-      <c r="F12" s="90"/>
-      <c r="H12" s="78">
-        <v>9</v>
-      </c>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
-        <v>10</v>
-      </c>
-      <c r="B13" s="90"/>
-      <c r="E13" s="78">
-        <v>10</v>
-      </c>
-      <c r="F13" s="90"/>
-      <c r="H13" s="78">
-        <v>10</v>
-      </c>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
-        <v>11</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="E14" s="78">
-        <v>11</v>
-      </c>
-      <c r="F14" s="90"/>
-      <c r="H14" s="78">
-        <v>11</v>
-      </c>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
-        <v>12</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="E15" s="78">
-        <v>12</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="H15" s="78">
-        <v>12</v>
-      </c>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
-        <v>13</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="E16" s="78">
-        <v>13</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="H16" s="78">
-        <v>13</v>
-      </c>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
-        <v>14</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="E17" s="78">
-        <v>14</v>
-      </c>
-      <c r="F17" s="90"/>
-      <c r="H17" s="78">
-        <v>14</v>
-      </c>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
-        <v>15</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="E18" s="78">
-        <v>15</v>
-      </c>
-      <c r="F18" s="90"/>
-      <c r="H18" s="78">
-        <v>15</v>
-      </c>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
-        <v>16</v>
-      </c>
-      <c r="B19" s="90"/>
-      <c r="E19" s="78">
-        <v>16</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="H19" s="78">
-        <v>16</v>
-      </c>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
-        <v>17</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="E20" s="78">
-        <v>17</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="H20" s="78">
-        <v>17</v>
-      </c>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="B21" s="88"/>
+      <c r="E21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="E21" s="78">
+      <c r="F21" s="88"/>
+      <c r="H21" s="76">
         <v>18</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="H21" s="78">
-        <v>18</v>
-      </c>
-      <c r="I21" s="90"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="E22" s="78">
+      <c r="B22" s="88"/>
+      <c r="E22" s="76">
         <v>19</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="H22" s="78">
+      <c r="F22" s="88"/>
+      <c r="H22" s="76">
         <v>19</v>
       </c>
-      <c r="I22" s="90"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="E23" s="78">
+      <c r="B23" s="88"/>
+      <c r="E23" s="76">
         <v>20</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="H23" s="78">
+      <c r="F23" s="88"/>
+      <c r="H23" s="76">
         <v>20</v>
       </c>
-      <c r="I23" s="90"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
         <v>100</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="E24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="90">
         <f>SUM(F3:F23)</f>
-        <v>100</v>
-      </c>
-      <c r="H24" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="92">
+      <c r="I24" s="90">
         <f>SUM(I3:I23)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8723,288 +8855,288 @@
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="67"/>
+      <c r="B1" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="66"/>
       <c r="D1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="87" t="s">
-        <v>46</v>
+      <c r="E1" s="85" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90">
-        <v>0</v>
-      </c>
-      <c r="D3" s="78">
-        <v>0</v>
-      </c>
-      <c r="E3" s="90">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88">
+        <v>0</v>
+      </c>
+      <c r="D3" s="76">
+        <v>0</v>
+      </c>
+      <c r="E3" s="88">
         <v>49</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88">
+        <v>100</v>
+      </c>
+      <c r="D4" s="76">
+        <v>1</v>
+      </c>
+      <c r="E4" s="88">
+        <v>0</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="76">
+        <v>2</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="D5" s="76">
+        <v>2</v>
+      </c>
+      <c r="E5" s="88">
+        <v>0</v>
+      </c>
+      <c r="F5" s="48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
-        <v>100</v>
-      </c>
-      <c r="D4" s="78">
-        <v>1</v>
-      </c>
-      <c r="E4" s="90">
-        <v>0</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
-        <v>2</v>
-      </c>
-      <c r="B5" s="90"/>
-      <c r="D5" s="78">
-        <v>2</v>
-      </c>
-      <c r="E5" s="90">
-        <v>0</v>
-      </c>
-      <c r="F5" s="96" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
+        <v>3</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="D6" s="76">
+        <v>3</v>
+      </c>
+      <c r="E6" s="88">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
-        <v>3</v>
-      </c>
-      <c r="B6" s="90"/>
-      <c r="D6" s="78">
-        <v>3</v>
-      </c>
-      <c r="E6" s="90">
-        <v>1</v>
-      </c>
-      <c r="F6" s="96" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
+        <v>4</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="D7" s="76">
+        <v>4</v>
+      </c>
+      <c r="E7" s="88">
+        <v>0</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="76">
+        <v>5</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="D8" s="76">
+        <v>5</v>
+      </c>
+      <c r="E8" s="88">
+        <v>50</v>
+      </c>
+      <c r="F8" s="48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
-        <v>4</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="D7" s="78">
-        <v>4</v>
-      </c>
-      <c r="E7" s="90">
-        <v>0</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
-        <v>5</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="D8" s="78">
-        <v>5</v>
-      </c>
-      <c r="E8" s="90">
-        <v>50</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="76">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="D9" s="78">
+      <c r="B9" s="88"/>
+      <c r="D9" s="76">
         <v>6</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="88"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="76">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="D10" s="78">
+      <c r="B10" s="88"/>
+      <c r="D10" s="76">
         <v>7</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="D11" s="78">
+      <c r="B11" s="88"/>
+      <c r="D11" s="76">
         <v>8</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="88"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="76">
         <v>9</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="D12" s="78">
+      <c r="B12" s="88"/>
+      <c r="D12" s="76">
         <v>9</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="88"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="D13" s="78">
+      <c r="B13" s="88"/>
+      <c r="D13" s="76">
         <v>10</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="88"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="D14" s="78">
+      <c r="B14" s="88"/>
+      <c r="D14" s="76">
         <v>11</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="88"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="D15" s="78">
+      <c r="B15" s="88"/>
+      <c r="D15" s="76">
         <v>12</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="D16" s="78">
+      <c r="B16" s="88"/>
+      <c r="D16" s="76">
         <v>13</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="D17" s="78">
+      <c r="B17" s="88"/>
+      <c r="D17" s="76">
         <v>14</v>
       </c>
-      <c r="E17" s="90"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="76">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="D18" s="78">
+      <c r="B18" s="88"/>
+      <c r="D18" s="76">
         <v>15</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="D19" s="78">
+      <c r="B19" s="88"/>
+      <c r="D19" s="76">
         <v>16</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="D20" s="78">
+      <c r="B20" s="88"/>
+      <c r="D20" s="76">
         <v>17</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="D21" s="78">
+      <c r="B21" s="88"/>
+      <c r="D21" s="76">
         <v>18</v>
       </c>
-      <c r="E21" s="90"/>
+      <c r="E21" s="88"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="D22" s="78">
+      <c r="B22" s="88"/>
+      <c r="D22" s="76">
         <v>19</v>
       </c>
-      <c r="E22" s="90"/>
+      <c r="E22" s="88"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="D23" s="78">
+      <c r="B23" s="88"/>
+      <c r="D23" s="76">
         <v>20</v>
       </c>
-      <c r="E23" s="90"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
         <v>100</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="90">
         <f>SUM(E3:E23)</f>
         <v>100</v>
       </c>
@@ -9021,13 +9153,11 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="48"/>
@@ -9468,7 +9598,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="93" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -9486,24 +9616,24 @@
       <c r="F19" s="65">
         <v>5</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="64">
         <v>2</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="64">
         <v>5</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="64">
         <v>2</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="64">
         <v>5</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="63">
         <v>2</v>
       </c>
@@ -9532,11 +9662,11 @@
         <v>10</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="63">
         <v>2</v>
       </c>
@@ -9552,20 +9682,20 @@
       <c r="F21" s="65">
         <v>15</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="64">
         <v>5</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="64">
         <v>10</v>
       </c>
-      <c r="I21" s="66">
+      <c r="I21" s="64">
         <v>5</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="64">
         <v>5</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9582,11 +9712,9 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9616,7 +9744,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="56" t="s">
@@ -9975,9 +10103,6 @@
       <c r="B14" s="62">
         <v>13</v>
       </c>
-      <c r="C14" s="48">
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
@@ -9986,11 +10111,8 @@
       <c r="B15" s="62">
         <v>0</v>
       </c>
-      <c r="C15" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>0</v>
       </c>
@@ -10001,7 +10123,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56" t="s">
@@ -10019,12 +10141,12 @@
       <c r="J18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="L18" s="67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -10040,31 +10162,27 @@
       <c r="F19" s="56">
         <v>30</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="64">
         <v>5</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="64">
         <v>5</v>
       </c>
-      <c r="I19" s="66">
-        <v>1</v>
-      </c>
-      <c r="J19" s="66">
+      <c r="I19" s="64">
+        <v>1</v>
+      </c>
+      <c r="J19" s="64">
         <v>1</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="69">
+        <v>86</v>
+      </c>
+      <c r="L19" s="92">
         <v>90</v>
       </c>
-      <c r="M19" s="48">
-        <f>L19/60</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="96"/>
       <c r="B20" s="63">
         <v>7</v>
       </c>
@@ -10078,31 +10196,27 @@
       <c r="F20" s="56">
         <v>30</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="64">
         <v>15</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="64">
         <v>15</v>
       </c>
-      <c r="I20" s="66">
+      <c r="I20" s="64">
         <v>7</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="64">
         <v>7</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="69">
+        <v>87</v>
+      </c>
+      <c r="L20" s="92">
         <v>300</v>
       </c>
-      <c r="M20" s="48">
-        <f>L20/60</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="97"/>
       <c r="B21" s="63">
         <v>5</v>
       </c>
@@ -10116,27 +10230,23 @@
       <c r="F21" s="56">
         <v>30</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="64">
         <v>10</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="64">
         <v>10</v>
       </c>
-      <c r="I21" s="66">
+      <c r="I21" s="64">
         <v>5</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="64">
         <v>5</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="69">
+        <v>88</v>
+      </c>
+      <c r="L21" s="92">
         <v>225</v>
-      </c>
-      <c r="M21" s="48">
-        <f>L21/60</f>
-        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -10181,7 +10291,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="12" t="s">
@@ -10634,7 +10744,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -10668,10 +10778,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F1" s="56" t="s">
         <v>21</v>
@@ -11055,16 +11165,8 @@
       <c r="B15" s="62">
         <v>0</v>
       </c>
-      <c r="C15" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>0</v>
       </c>
@@ -11075,10 +11177,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F18" s="56" t="s">
         <v>21</v>
@@ -11095,12 +11197,12 @@
       <c r="J18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="L18" s="67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -11118,27 +11220,27 @@
       <c r="F19" s="56">
         <v>0</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="64">
         <v>20</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="64">
         <v>20</v>
       </c>
-      <c r="I19" s="66">
-        <v>1</v>
-      </c>
-      <c r="J19" s="66">
+      <c r="I19" s="64">
+        <v>1</v>
+      </c>
+      <c r="J19" s="64">
         <v>1</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="69">
+        <v>86</v>
+      </c>
+      <c r="L19" s="92">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="96"/>
       <c r="B20" s="63">
         <v>7</v>
       </c>
@@ -11154,27 +11256,27 @@
       <c r="F20" s="56">
         <v>30</v>
       </c>
-      <c r="G20" s="66">
-        <v>1</v>
-      </c>
-      <c r="H20" s="66">
-        <v>1</v>
-      </c>
-      <c r="I20" s="66">
+      <c r="G20" s="64">
+        <v>1</v>
+      </c>
+      <c r="H20" s="64">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64">
         <v>7</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="64">
         <v>7</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="69">
+        <v>87</v>
+      </c>
+      <c r="L20" s="92">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="97"/>
       <c r="B21" s="63">
         <v>5</v>
       </c>
@@ -11190,183 +11292,28 @@
       <c r="F21" s="56">
         <v>30</v>
       </c>
-      <c r="G21" s="66">
-        <v>0</v>
-      </c>
-      <c r="H21" s="66">
-        <v>0</v>
-      </c>
-      <c r="I21" s="66">
+      <c r="G21" s="64">
+        <v>0</v>
+      </c>
+      <c r="H21" s="64">
+        <v>0</v>
+      </c>
+      <c r="I21" s="64">
         <v>5</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="64">
         <v>5</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="69">
+        <v>88</v>
+      </c>
+      <c r="L21" s="92">
         <v>180</v>
       </c>
-      <c r="M21" s="48">
-        <f>SUM(B19:J19)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="63">
-        <v>1</v>
-      </c>
-      <c r="C24" s="64">
-        <v>1</v>
-      </c>
-      <c r="D24" s="64">
-        <v>10</v>
-      </c>
-      <c r="E24" s="64">
-        <v>10</v>
-      </c>
-      <c r="F24" s="56">
-        <v>30</v>
-      </c>
-      <c r="G24" s="66">
-        <v>20</v>
-      </c>
-      <c r="H24" s="66">
-        <v>20</v>
-      </c>
-      <c r="I24" s="66">
-        <v>1</v>
-      </c>
-      <c r="J24" s="66">
-        <v>1</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="69">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
-      <c r="B25" s="63">
-        <v>7</v>
-      </c>
-      <c r="C25" s="64">
-        <v>7</v>
-      </c>
-      <c r="D25" s="64">
-        <v>2</v>
-      </c>
-      <c r="E25" s="64">
-        <v>2</v>
-      </c>
-      <c r="F25" s="56">
-        <v>30</v>
-      </c>
-      <c r="G25" s="66">
-        <v>1</v>
-      </c>
-      <c r="H25" s="66">
-        <v>1</v>
-      </c>
-      <c r="I25" s="66">
-        <v>7</v>
-      </c>
-      <c r="J25" s="66">
-        <v>7</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="69">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
-      <c r="B26" s="63">
-        <v>5</v>
-      </c>
-      <c r="C26" s="64">
-        <v>5</v>
-      </c>
-      <c r="D26" s="64">
-        <v>0</v>
-      </c>
-      <c r="E26" s="64">
-        <v>0</v>
-      </c>
-      <c r="F26" s="56">
-        <v>30</v>
-      </c>
-      <c r="G26" s="66">
-        <v>0</v>
-      </c>
-      <c r="H26" s="66">
-        <v>0</v>
-      </c>
-      <c r="I26" s="66">
-        <v>5</v>
-      </c>
-      <c r="J26" s="66">
-        <v>5</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="L26" s="69">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11381,9 +11328,7 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11411,7 +11356,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="56"/>
       <c r="F1" s="56" t="s">
@@ -11770,9 +11715,6 @@
       <c r="B14" s="62">
         <v>6</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
@@ -11789,7 +11731,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="53" t="s">
@@ -11809,7 +11751,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -11822,27 +11764,27 @@
         <v>10</v>
       </c>
       <c r="E19" s="56"/>
-      <c r="F19" s="66">
+      <c r="F19" s="64">
         <v>10</v>
       </c>
-      <c r="G19" s="66">
-        <v>1</v>
-      </c>
-      <c r="H19" s="66">
+      <c r="G19" s="64">
+        <v>1</v>
+      </c>
+      <c r="H19" s="64">
         <v>5</v>
       </c>
-      <c r="I19" s="66">
-        <v>1</v>
-      </c>
-      <c r="J19" s="66">
+      <c r="I19" s="64">
+        <v>1</v>
+      </c>
+      <c r="J19" s="64">
         <v>1</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="63">
         <v>7</v>
       </c>
@@ -11853,27 +11795,27 @@
         <v>40</v>
       </c>
       <c r="E20" s="56"/>
-      <c r="F20" s="66">
+      <c r="F20" s="64">
         <v>40</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="64">
         <v>7</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="64">
         <v>15</v>
       </c>
-      <c r="I20" s="66">
+      <c r="I20" s="64">
         <v>7</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="64">
         <v>7</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="63">
         <v>5</v>
       </c>
@@ -11884,23 +11826,23 @@
         <v>30</v>
       </c>
       <c r="E21" s="56"/>
-      <c r="F21" s="66">
+      <c r="F21" s="64">
         <v>30</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="64">
         <v>5</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="64">
         <v>10</v>
       </c>
-      <c r="I21" s="66">
+      <c r="I21" s="64">
         <v>5</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="64">
         <v>5</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -12441,7 +12383,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12452,294 +12394,241 @@
     <col min="3" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="J1" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
+    <row r="1" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="J1" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="72">
+        <v>150</v>
+      </c>
+      <c r="C2" s="72">
+        <v>120</v>
+      </c>
+      <c r="D2" s="72">
+        <v>180</v>
+      </c>
+      <c r="J2" s="72">
+        <v>150</v>
+      </c>
+      <c r="K2" s="72">
+        <v>120</v>
+      </c>
+      <c r="L2" s="72">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B3" s="74">
+        <v>90</v>
+      </c>
+      <c r="C3" s="74">
+        <v>90</v>
+      </c>
+      <c r="D3" s="74">
+        <v>90</v>
+      </c>
+      <c r="J3" s="74">
+        <v>90</v>
+      </c>
+      <c r="K3" s="74">
+        <v>90</v>
+      </c>
+      <c r="L3" s="74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="74">
         <v>150</v>
       </c>
-      <c r="C2" s="74">
-        <v>120</v>
-      </c>
-      <c r="D2" s="74">
-        <v>180</v>
-      </c>
-      <c r="J2" s="74">
+      <c r="C4" s="74">
         <v>150</v>
       </c>
-      <c r="K2" s="74">
-        <v>120</v>
-      </c>
-      <c r="L2" s="74">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="76">
+      <c r="D4" s="74">
+        <v>150</v>
+      </c>
+      <c r="J4" s="74">
+        <v>150</v>
+      </c>
+      <c r="K4" s="74">
+        <v>150</v>
+      </c>
+      <c r="L4" s="74">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="77">
+        <v>15</v>
+      </c>
+      <c r="C6" s="77">
+        <v>10</v>
+      </c>
+      <c r="D6" s="77">
+        <v>45</v>
+      </c>
+      <c r="J6" s="77">
+        <v>15</v>
+      </c>
+      <c r="K6" s="77">
+        <v>10</v>
+      </c>
+      <c r="L6" s="77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="77">
+        <v>330</v>
+      </c>
+      <c r="C9" s="77">
+        <v>60</v>
+      </c>
+      <c r="D9" s="77">
+        <v>420</v>
+      </c>
+      <c r="J9" s="77">
+        <v>60</v>
+      </c>
+      <c r="K9" s="77">
+        <v>30</v>
+      </c>
+      <c r="L9" s="77">
         <v>90</v>
       </c>
-      <c r="C3" s="76">
-        <v>90</v>
-      </c>
-      <c r="D3" s="76">
-        <v>90</v>
-      </c>
-      <c r="J3" s="76">
-        <v>90</v>
-      </c>
-      <c r="K3" s="76">
-        <v>90</v>
-      </c>
-      <c r="L3" s="76">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="76">
-        <v>150</v>
-      </c>
-      <c r="C4" s="76">
-        <v>150</v>
-      </c>
-      <c r="D4" s="76">
-        <v>150</v>
-      </c>
-      <c r="J4" s="76">
-        <v>150</v>
-      </c>
-      <c r="K4" s="76">
-        <v>150</v>
-      </c>
-      <c r="L4" s="76">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="79">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="77">
+        <v>9</v>
+      </c>
+      <c r="C10" s="77">
+        <v>9</v>
+      </c>
+      <c r="D10" s="77">
+        <v>9</v>
+      </c>
+      <c r="J10" s="77">
+        <v>9</v>
+      </c>
+      <c r="K10" s="77">
+        <v>9</v>
+      </c>
+      <c r="L10" s="77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="77">
+        <v>4</v>
+      </c>
+      <c r="C11" s="77">
+        <v>4</v>
+      </c>
+      <c r="D11" s="77">
+        <v>4</v>
+      </c>
+      <c r="J11" s="77">
+        <v>4</v>
+      </c>
+      <c r="K11" s="77">
+        <v>4</v>
+      </c>
+      <c r="L11" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="77">
         <v>15</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C12" s="77">
         <v>10</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D12" s="77">
         <v>45</v>
       </c>
-      <c r="F6" s="79">
-        <v>230</v>
-      </c>
-      <c r="G6" s="79">
-        <v>50</v>
-      </c>
-      <c r="H6" s="79">
-        <v>410</v>
-      </c>
-      <c r="J6" s="79">
+      <c r="J12" s="77">
         <v>15</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K12" s="77">
         <v>10</v>
       </c>
-      <c r="L6" s="79">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="79">
-        <v>330</v>
-      </c>
-      <c r="C9" s="79">
-        <v>60</v>
-      </c>
-      <c r="D9" s="79">
-        <v>420</v>
-      </c>
-      <c r="F9" s="79">
-        <v>1140</v>
-      </c>
-      <c r="G9" s="79">
-        <v>240</v>
-      </c>
-      <c r="H9" s="79">
-        <v>1400</v>
-      </c>
-      <c r="J9" s="79">
-        <v>60</v>
-      </c>
-      <c r="K9" s="79">
-        <v>30</v>
-      </c>
-      <c r="L9" s="79">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="79">
-        <v>9</v>
-      </c>
-      <c r="C10" s="79">
-        <v>9</v>
-      </c>
-      <c r="D10" s="79">
-        <v>9</v>
-      </c>
-      <c r="J10" s="79">
-        <v>9</v>
-      </c>
-      <c r="K10" s="79">
-        <v>9</v>
-      </c>
-      <c r="L10" s="79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="79">
-        <v>4</v>
-      </c>
-      <c r="C11" s="79">
-        <v>4</v>
-      </c>
-      <c r="D11" s="79">
-        <v>4</v>
-      </c>
-      <c r="J11" s="79">
-        <v>4</v>
-      </c>
-      <c r="K11" s="79">
-        <v>4</v>
-      </c>
-      <c r="L11" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="79">
-        <v>15</v>
-      </c>
-      <c r="C12" s="79">
-        <v>10</v>
-      </c>
-      <c r="D12" s="79">
-        <v>45</v>
-      </c>
-      <c r="F12" s="79">
-        <v>230</v>
-      </c>
-      <c r="G12" s="79">
-        <v>50</v>
-      </c>
-      <c r="H12" s="79">
-        <v>410</v>
-      </c>
-      <c r="J12" s="79">
-        <v>15</v>
-      </c>
-      <c r="K12" s="79">
-        <v>10</v>
-      </c>
-      <c r="L12" s="79">
+      <c r="L12" s="77">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="48">
-        <f>B9/60</f>
-        <v>5.5</v>
-      </c>
-      <c r="C15" s="48">
-        <f>C9/60</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="48">
-        <f>D9/60</f>
-        <v>7</v>
-      </c>
-      <c r="J15" s="48">
-        <f>J9/60</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="48">
-        <f>K9/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="48">
-        <f>L9/60</f>
-        <v>1.5</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843" firstSheet="10" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8403,7 +8403,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="155">
   <si>
     <t>Resources/Process</t>
   </si>
@@ -518,6 +518,21 @@
   </si>
   <si>
     <t>Board</t>
+  </si>
+  <si>
+    <t>LOS_AMU</t>
+  </si>
+  <si>
+    <t>Delay_Discharge_Home</t>
+  </si>
+  <si>
+    <t>Should be 1</t>
+  </si>
+  <si>
+    <t>Delay_Discharge_AMU</t>
+  </si>
+  <si>
+    <t>Delay_Discharge_Admit</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1623,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1640,60 +1655,60 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>10.182479605394718</v>
+        <v>10.099403356786008</v>
       </c>
       <c r="C1" s="37">
-        <v>16.723852743722311</v>
+        <v>16.339253230175622</v>
       </c>
       <c r="D1" s="37">
-        <v>8.6751965060141067</v>
+        <v>8.5494866449044764</v>
       </c>
       <c r="E1" s="37">
-        <v>11.654920157426707</v>
+        <v>11.495546650319461</v>
       </c>
       <c r="F1" s="37">
-        <v>15.432080391909578</v>
+        <v>15.449903243702567</v>
       </c>
       <c r="G1" s="37">
-        <v>9.7509013006474508</v>
+        <v>9.7136591398322363</v>
       </c>
       <c r="H1" s="37">
-        <v>8.8314734312540484</v>
+        <v>8.9191100265415493</v>
       </c>
       <c r="I1" s="37">
-        <v>7.5711449165167357</v>
+        <v>8.8660778023630193</v>
       </c>
       <c r="J1" s="37">
-        <v>9.9674404065268121</v>
+        <v>8.9521782517376014</v>
       </c>
       <c r="K1" s="38">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L1" s="38">
         <v>876</v>
       </c>
       <c r="M1" s="38">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N1" s="39">
-        <v>78.582416899308711</v>
+        <v>0.15788551436337953</v>
       </c>
       <c r="O1" s="39">
-        <v>0.70025083694110013</v>
+        <v>0.700097409101615</v>
       </c>
       <c r="P1" s="39">
-        <v>0.43875399847568658</v>
+        <v>0.44083727952070501</v>
       </c>
       <c r="Q1" s="39">
-        <v>49.512229926717481</v>
+        <v>39.018415069798088</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.24771689497716895</v>
+        <v>0.23515981735159816</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.24884792626728111</v>
+        <v>0.470873786407767</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1957,43 +1972,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>10.182479605394718</v>
+        <v>10.099403356786008</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>16.723852743722311</v>
+        <v>16.339253230175622</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.6751965060141067</v>
+        <v>8.5494866449044764</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.654920157426707</v>
+        <v>11.495546650319461</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>15.432080391909578</v>
+        <v>15.449903243702567</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.7509013006474508</v>
+        <v>9.7136591398322363</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>8.8314734312540484</v>
+        <v>8.9191100265415493</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>7.5711449165167357</v>
+        <v>8.8660778023630193</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>9.9674404065268121</v>
+        <v>8.9521782517376014</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2001,23 +2016,23 @@
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>78.582416899308711</v>
+        <v>0.15788551436337953</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.70025083694110013</v>
+        <v>0.700097409101615</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.43875399847568658</v>
+        <v>0.44083727952070501</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>49.512229926717481</v>
+        <v>39.018415069798088</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>
@@ -2127,7 +2142,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2135,10 +2150,19 @@
   <cols>
     <col min="1" max="1" width="15.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="48"/>
+    <col min="3" max="5" width="8.88671875" style="48"/>
+    <col min="6" max="6" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="48"/>
+    <col min="9" max="9" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="48"/>
+    <col min="12" max="12" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -2147,8 +2171,26 @@
       </c>
       <c r="C1" s="99"/>
       <c r="D1" s="100"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>61</v>
       </c>
@@ -2161,8 +2203,26 @@
       <c r="D2" s="77">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>62</v>
       </c>
@@ -2175,8 +2235,26 @@
       <c r="D3" s="77">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="76">
+        <v>5</v>
+      </c>
+      <c r="G3" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="76">
+        <v>5</v>
+      </c>
+      <c r="J3" s="88">
+        <v>0.16</v>
+      </c>
+      <c r="L3" s="76">
+        <v>5</v>
+      </c>
+      <c r="M3" s="88">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>63</v>
       </c>
@@ -2189,8 +2267,26 @@
       <c r="D4" s="77">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="76">
+        <v>10</v>
+      </c>
+      <c r="G4" s="88">
+        <v>0.16</v>
+      </c>
+      <c r="I4" s="76">
+        <v>10</v>
+      </c>
+      <c r="J4" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="76">
+        <v>10</v>
+      </c>
+      <c r="M4" s="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
         <v>92</v>
       </c>
@@ -2201,24 +2297,60 @@
         <v>5</v>
       </c>
       <c r="D5" s="77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F5" s="76">
+        <v>15</v>
+      </c>
+      <c r="G5" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="76">
+        <v>15</v>
+      </c>
+      <c r="J5" s="88">
+        <v>0.06</v>
+      </c>
+      <c r="L5" s="76">
+        <v>15</v>
+      </c>
+      <c r="M5" s="88">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="77">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="77">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F6" s="76">
+        <v>20</v>
+      </c>
+      <c r="G6" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="I6" s="76">
+        <v>20</v>
+      </c>
+      <c r="J6" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="76">
+        <v>20</v>
+      </c>
+      <c r="M6" s="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>94</v>
       </c>
@@ -2231,8 +2363,26 @@
       <c r="D7" s="77">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="76">
+        <v>25</v>
+      </c>
+      <c r="G7" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="76">
+        <v>25</v>
+      </c>
+      <c r="J7" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="76">
+        <v>25</v>
+      </c>
+      <c r="M7" s="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
         <v>95</v>
       </c>
@@ -2245,8 +2395,26 @@
       <c r="D8" s="77">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="76">
+        <v>30</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="76">
+        <v>30</v>
+      </c>
+      <c r="J8" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="76">
+        <v>30</v>
+      </c>
+      <c r="M8" s="88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>96</v>
       </c>
@@ -2259,8 +2427,46 @@
       <c r="D9" s="77">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="76">
+        <v>35</v>
+      </c>
+      <c r="G9" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="76">
+        <v>35</v>
+      </c>
+      <c r="J9" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="76">
+        <v>35</v>
+      </c>
+      <c r="M9" s="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="76">
+        <v>40</v>
+      </c>
+      <c r="G10" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="76">
+        <v>45</v>
+      </c>
+      <c r="J10" s="88">
+        <v>0.04</v>
+      </c>
+      <c r="L10" s="76">
+        <v>40</v>
+      </c>
+      <c r="M10" s="88">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>90</v>
       </c>
@@ -2269,6 +2475,231 @@
       </c>
       <c r="D11" s="48" t="s">
         <v>87</v>
+      </c>
+      <c r="F11" s="76">
+        <v>45</v>
+      </c>
+      <c r="G11" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="76">
+        <v>50</v>
+      </c>
+      <c r="J11" s="88">
+        <v>0.04</v>
+      </c>
+      <c r="L11" s="76">
+        <v>45</v>
+      </c>
+      <c r="M11" s="88">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="76">
+        <v>50</v>
+      </c>
+      <c r="G12" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="I12" s="76">
+        <v>55</v>
+      </c>
+      <c r="J12" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="76">
+        <v>50</v>
+      </c>
+      <c r="M12" s="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="76">
+        <v>55</v>
+      </c>
+      <c r="G13" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="76">
+        <v>60</v>
+      </c>
+      <c r="J13" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="L13" s="76">
+        <v>55</v>
+      </c>
+      <c r="M13" s="88">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="76">
+        <v>60</v>
+      </c>
+      <c r="G14" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="I14" s="76">
+        <v>120</v>
+      </c>
+      <c r="J14" s="88">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="76">
+        <v>60</v>
+      </c>
+      <c r="M14" s="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="76">
+        <v>120</v>
+      </c>
+      <c r="G15" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="I15" s="76">
+        <v>180</v>
+      </c>
+      <c r="J15" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="76">
+        <v>120</v>
+      </c>
+      <c r="M15" s="88">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="76">
+        <v>180</v>
+      </c>
+      <c r="G16" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="76">
+        <v>240</v>
+      </c>
+      <c r="J16" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L16" s="76">
+        <v>180</v>
+      </c>
+      <c r="M16" s="88">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="76"/>
+      <c r="G17" s="88"/>
+      <c r="I17" s="76">
+        <v>300</v>
+      </c>
+      <c r="J17" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="L17" s="76">
+        <v>240</v>
+      </c>
+      <c r="M17" s="88">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="76"/>
+      <c r="G18" s="88"/>
+      <c r="I18" s="76">
+        <v>360</v>
+      </c>
+      <c r="J18" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="76">
+        <v>300</v>
+      </c>
+      <c r="M18" s="88">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="76"/>
+      <c r="G19" s="88"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="88"/>
+      <c r="L19" s="76">
+        <v>360</v>
+      </c>
+      <c r="M19" s="88">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="76"/>
+      <c r="G20" s="88"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="88"/>
+      <c r="L20" s="76">
+        <v>420</v>
+      </c>
+      <c r="M20" s="88">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="76"/>
+      <c r="G21" s="88"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="88"/>
+      <c r="L21" s="76">
+        <v>480</v>
+      </c>
+      <c r="M21" s="88">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="76"/>
+      <c r="G22" s="88"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="88"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="88"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="76"/>
+      <c r="G23" s="88"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="88"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="88"/>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="90">
+        <f>SUM(G3:G23)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="90">
+        <f>SUM(J3:J23)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="90">
+        <f>SUM(M3:M23)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +3100,9 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3053,7 +3486,9 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8401,10 +8836,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8418,10 +8853,13 @@
     <col min="7" max="7" width="8.88671875" style="48"/>
     <col min="8" max="8" width="13.44140625" style="48" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="48"/>
+    <col min="10" max="10" width="8.88671875" style="48"/>
+    <col min="11" max="11" width="13.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
@@ -8443,8 +8881,14 @@
       <c r="I1" s="85" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
@@ -8466,8 +8910,14 @@
       <c r="I2" s="87" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="76">
         <v>0</v>
       </c>
@@ -8492,8 +8942,17 @@
       <c r="J3" s="48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="76">
+        <v>1</v>
+      </c>
+      <c r="L3" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="M3" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="76">
         <v>1</v>
       </c>
@@ -8518,8 +8977,17 @@
       <c r="J4" s="48" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="76">
+        <v>2</v>
+      </c>
+      <c r="L4" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="76">
         <v>2</v>
       </c>
@@ -8544,8 +9012,17 @@
       <c r="J5" s="48" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="76">
+        <v>3</v>
+      </c>
+      <c r="L5" s="88">
+        <v>0.22</v>
+      </c>
+      <c r="M5" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
         <v>3</v>
       </c>
@@ -8565,8 +9042,17 @@
       <c r="J6" s="48" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="76">
+        <v>4</v>
+      </c>
+      <c r="L6" s="88">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M6" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="76">
         <v>4</v>
       </c>
@@ -8579,8 +9065,17 @@
         <v>4</v>
       </c>
       <c r="I7" s="88"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="76">
+        <v>5</v>
+      </c>
+      <c r="L7" s="88">
+        <v>0.12</v>
+      </c>
+      <c r="M7" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="76">
         <v>5</v>
       </c>
@@ -8593,8 +9088,17 @@
         <v>5</v>
       </c>
       <c r="I8" s="88"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="76">
+        <v>6</v>
+      </c>
+      <c r="L8" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M8" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="76">
         <v>6</v>
       </c>
@@ -8607,8 +9111,17 @@
         <v>6</v>
       </c>
       <c r="I9" s="88"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="76">
+        <v>7</v>
+      </c>
+      <c r="L9" s="88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M9" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="76">
         <v>7</v>
       </c>
@@ -8621,8 +9134,17 @@
         <v>7</v>
       </c>
       <c r="I10" s="88"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="76">
+        <v>8</v>
+      </c>
+      <c r="L10" s="88">
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="76">
         <v>8</v>
       </c>
@@ -8635,8 +9157,17 @@
         <v>8</v>
       </c>
       <c r="I11" s="88"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="76">
+        <v>9</v>
+      </c>
+      <c r="L11" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="M11" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="76">
         <v>9</v>
       </c>
@@ -8649,8 +9180,17 @@
         <v>9</v>
       </c>
       <c r="I12" s="88"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="76">
+        <v>10</v>
+      </c>
+      <c r="L12" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="M12" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="76">
         <v>10</v>
       </c>
@@ -8663,8 +9203,17 @@
         <v>10</v>
       </c>
       <c r="I13" s="88"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="76">
+        <v>15</v>
+      </c>
+      <c r="L13" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="M13" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
         <v>11</v>
       </c>
@@ -8677,8 +9226,17 @@
         <v>11</v>
       </c>
       <c r="I14" s="88"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="76">
+        <v>25</v>
+      </c>
+      <c r="L14" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="M14" s="48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="76">
         <v>12</v>
       </c>
@@ -8691,8 +9249,10 @@
         <v>12</v>
       </c>
       <c r="I15" s="88"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="76"/>
+      <c r="L15" s="88"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
         <v>13</v>
       </c>
@@ -8705,8 +9265,10 @@
         <v>13</v>
       </c>
       <c r="I16" s="88"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="76"/>
+      <c r="L16" s="88"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="76">
         <v>14</v>
       </c>
@@ -8719,8 +9281,10 @@
         <v>14</v>
       </c>
       <c r="I17" s="88"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="76"/>
+      <c r="L17" s="88"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="76">
         <v>15</v>
       </c>
@@ -8733,8 +9297,10 @@
         <v>15</v>
       </c>
       <c r="I18" s="88"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="76"/>
+      <c r="L18" s="88"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="76">
         <v>16</v>
       </c>
@@ -8747,8 +9313,10 @@
         <v>16</v>
       </c>
       <c r="I19" s="88"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="76"/>
+      <c r="L19" s="88"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="76">
         <v>17</v>
       </c>
@@ -8761,8 +9329,10 @@
         <v>17</v>
       </c>
       <c r="I20" s="88"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="76"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
         <v>18</v>
       </c>
@@ -8775,8 +9345,10 @@
         <v>18</v>
       </c>
       <c r="I21" s="88"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="76"/>
+      <c r="L21" s="88"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="76">
         <v>19</v>
       </c>
@@ -8789,8 +9361,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="88"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="76"/>
+      <c r="L22" s="88"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="76">
         <v>20</v>
       </c>
@@ -8803,8 +9377,10 @@
         <v>20</v>
       </c>
       <c r="I23" s="88"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="76"/>
+      <c r="L23" s="88"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="86" t="s">
         <v>36</v>
       </c>
@@ -8825,6 +9401,13 @@
       <c r="I24" s="90">
         <f>SUM(I3:I23)</f>
         <v>1</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="90">
+        <f>SUM(L3:L23)</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10747,7 +11330,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11209,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="64">
         <v>10</v>
@@ -11245,23 +11828,15 @@
         <v>7</v>
       </c>
       <c r="C20" s="64">
-        <v>7</v>
-      </c>
-      <c r="D20" s="64">
-        <v>2</v>
-      </c>
-      <c r="E20" s="64">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="56">
         <v>30</v>
       </c>
-      <c r="G20" s="64">
-        <v>1</v>
-      </c>
-      <c r="H20" s="64">
-        <v>1</v>
-      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="64">
         <v>7</v>
       </c>
@@ -11281,23 +11856,15 @@
         <v>5</v>
       </c>
       <c r="C21" s="64">
-        <v>5</v>
-      </c>
-      <c r="D21" s="64">
-        <v>0</v>
-      </c>
-      <c r="E21" s="64">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="56">
         <v>30</v>
       </c>
-      <c r="G21" s="64">
-        <v>0</v>
-      </c>
-      <c r="H21" s="64">
-        <v>0</v>
-      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="64">
         <v>5</v>
       </c>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1655,60 +1655,60 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>10.099403356786008</v>
+        <v>10.074437123570366</v>
       </c>
       <c r="C1" s="37">
-        <v>16.339253230175622</v>
+        <v>16.792125140216296</v>
       </c>
       <c r="D1" s="37">
-        <v>8.5494866449044764</v>
+        <v>8.7592093556054529</v>
       </c>
       <c r="E1" s="37">
-        <v>11.495546650319461</v>
+        <v>12.391329003934509</v>
       </c>
       <c r="F1" s="37">
-        <v>15.449903243702567</v>
+        <v>17.088768627171888</v>
       </c>
       <c r="G1" s="37">
-        <v>9.7136591398322363</v>
+        <v>10.294800840589581</v>
       </c>
       <c r="H1" s="37">
-        <v>8.9191100265415493</v>
+        <v>27.618491974775679</v>
       </c>
       <c r="I1" s="37">
-        <v>8.8660778023630193</v>
+        <v>23.658956504228993</v>
       </c>
       <c r="J1" s="37">
-        <v>8.9521782517376014</v>
+        <v>30.777443531798781</v>
       </c>
       <c r="K1" s="38">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="L1" s="38">
         <v>876</v>
       </c>
       <c r="M1" s="38">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="N1" s="39">
-        <v>0.15788551436337953</v>
+        <v>5.1720024299374792E-2</v>
       </c>
       <c r="O1" s="39">
-        <v>0.700097409101615</v>
+        <v>0.11404542049142317</v>
       </c>
       <c r="P1" s="39">
-        <v>0.44083727952070501</v>
+        <v>2.7148629304764863E-2</v>
       </c>
       <c r="Q1" s="39">
-        <v>39.018415069798088</v>
+        <v>23.401052798076023</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.23515981735159816</v>
+        <v>1.2557077625570776E-2</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.470873786407767</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1972,43 +1972,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>10.099403356786008</v>
+        <v>10.074437123570366</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>16.339253230175622</v>
+        <v>16.792125140216296</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.5494866449044764</v>
+        <v>8.7592093556054529</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.495546650319461</v>
+        <v>12.391329003934509</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>15.449903243702567</v>
+        <v>17.088768627171888</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.7136591398322363</v>
+        <v>10.294800840589581</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>8.9191100265415493</v>
+        <v>27.618491974775679</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>8.8660778023630193</v>
+        <v>23.658956504228993</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>8.9521782517376014</v>
+        <v>30.777443531798781</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2016,23 +2016,23 @@
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>0.15788551436337953</v>
+        <v>5.1720024299374792E-2</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.700097409101615</v>
+        <v>0.11404542049142317</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.44083727952070501</v>
+        <v>2.7148629304764863E-2</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>39.018415069798088</v>
+        <v>23.401052798076023</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1655,60 +1655,60 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>10.074437123570366</v>
+        <v>10.14218928372175</v>
       </c>
       <c r="C1" s="37">
-        <v>16.792125140216296</v>
+        <v>16.10607236744913</v>
       </c>
       <c r="D1" s="37">
-        <v>8.7592093556054529</v>
+        <v>8.7513381471356162</v>
       </c>
       <c r="E1" s="37">
-        <v>12.391329003934509</v>
+        <v>11.768782637501435</v>
       </c>
       <c r="F1" s="37">
-        <v>17.088768627171888</v>
+        <v>16.194378879382157</v>
       </c>
       <c r="G1" s="37">
-        <v>10.294800840589581</v>
+        <v>9.6848497957387174</v>
       </c>
       <c r="H1" s="37">
-        <v>27.618491974775679</v>
+        <v>8.3534431851547239</v>
       </c>
       <c r="I1" s="37">
-        <v>23.658956504228993</v>
+        <v>9.1269643916629288</v>
       </c>
       <c r="J1" s="37">
-        <v>30.777443531798781</v>
+        <v>7.6855968015611849</v>
       </c>
       <c r="K1" s="38">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="L1" s="38">
         <v>876</v>
       </c>
       <c r="M1" s="38">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N1" s="39">
-        <v>5.1720024299374792E-2</v>
+        <v>4.4604828359562698E-2</v>
       </c>
       <c r="O1" s="39">
-        <v>0.11404542049142317</v>
+        <v>0.49592987168692232</v>
       </c>
       <c r="P1" s="39">
-        <v>2.7148629304764863E-2</v>
+        <v>0.2938976159510695</v>
       </c>
       <c r="Q1" s="39">
-        <v>23.401052798076023</v>
+        <v>28.035741637538155</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>1.2557077625570776E-2</v>
+        <v>0.2180365296803653</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.36363636363636365</v>
+        <v>0.14659685863874344</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1972,43 +1972,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>10.074437123570366</v>
+        <v>10.14218928372175</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>16.792125140216296</v>
+        <v>16.10607236744913</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.7592093556054529</v>
+        <v>8.7513381471356162</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>12.391329003934509</v>
+        <v>11.768782637501435</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>17.088768627171888</v>
+        <v>16.194378879382157</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>10.294800840589581</v>
+        <v>9.6848497957387174</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>27.618491974775679</v>
+        <v>8.3534431851547239</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>23.658956504228993</v>
+        <v>9.1269643916629288</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>30.777443531798781</v>
+        <v>7.6855968015611849</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2016,23 +2016,23 @@
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>5.1720024299374792E-2</v>
+        <v>4.4604828359562698E-2</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.11404542049142317</v>
+        <v>0.49592987168692232</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>2.7148629304764863E-2</v>
+        <v>0.2938976159510695</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>23.401052798076023</v>
+        <v>28.035741637538155</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
@@ -1622,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1655,60 +1655,60 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>10.14218928372175</v>
+        <v>9.6765676999445098</v>
       </c>
       <c r="C1" s="37">
-        <v>16.10607236744913</v>
+        <v>15.497687865527437</v>
       </c>
       <c r="D1" s="37">
-        <v>8.7513381471356162</v>
+        <v>8.2714697289417565</v>
       </c>
       <c r="E1" s="37">
-        <v>11.768782637501435</v>
+        <v>11.305352564199476</v>
       </c>
       <c r="F1" s="37">
-        <v>16.194378879382157</v>
+        <v>15.498246797761322</v>
       </c>
       <c r="G1" s="37">
-        <v>9.6848497957387174</v>
+        <v>9.1897965466158702</v>
       </c>
       <c r="H1" s="37">
-        <v>8.3534431851547239</v>
+        <v>5.7006499367053944</v>
       </c>
       <c r="I1" s="37">
-        <v>9.1269643916629288</v>
+        <v>5.6275578193680547</v>
       </c>
       <c r="J1" s="37">
-        <v>7.6855968015611849</v>
+        <v>5.7725354861507547</v>
       </c>
       <c r="K1" s="38">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="L1" s="38">
         <v>876</v>
       </c>
       <c r="M1" s="38">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="N1" s="39">
-        <v>4.4604828359562698E-2</v>
+        <v>2.4326264639408222</v>
       </c>
       <c r="O1" s="39">
-        <v>0.49592987168692232</v>
+        <v>0.57709758891276297</v>
       </c>
       <c r="P1" s="39">
-        <v>0.2938976159510695</v>
+        <v>0.58339396294076529</v>
       </c>
       <c r="Q1" s="39">
-        <v>28.035741637538155</v>
+        <v>36.374687944784924</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.2180365296803653</v>
+        <v>0.28424657534246578</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.14659685863874344</v>
+        <v>0.40562248995983935</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1972,43 +1972,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>10.14218928372175</v>
+        <v>9.6765676999445098</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>16.10607236744913</v>
+        <v>15.497687865527437</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.7513381471356162</v>
+        <v>8.2714697289417565</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.768782637501435</v>
+        <v>11.305352564199476</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>16.194378879382157</v>
+        <v>15.498246797761322</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.6848497957387174</v>
+        <v>9.1897965466158702</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>8.3534431851547239</v>
+        <v>5.7006499367053944</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>9.1269643916629288</v>
+        <v>5.6275578193680547</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>7.6855968015611849</v>
+        <v>5.7725354861507547</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2016,23 +2016,23 @@
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>4.4604828359562698E-2</v>
+        <v>2.4326264639408222</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.49592987168692232</v>
+        <v>0.57709758891276297</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.2938976159510695</v>
+        <v>0.58339396294076529</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>28.035741637538155</v>
+        <v>36.374687944784924</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>
@@ -2891,7 +2891,9 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
@@ -1622,9 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1655,60 +1653,60 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>9.6765676999445098</v>
+        <v>9.9350577369051045</v>
       </c>
       <c r="C1" s="37">
-        <v>15.497687865527437</v>
+        <v>16.097864540597552</v>
       </c>
       <c r="D1" s="37">
-        <v>8.2714697289417565</v>
+        <v>8.471461216646933</v>
       </c>
       <c r="E1" s="37">
-        <v>11.305352564199476</v>
+        <v>11.461329428488494</v>
       </c>
       <c r="F1" s="37">
-        <v>15.498246797761322</v>
+        <v>15.849224889545203</v>
       </c>
       <c r="G1" s="37">
-        <v>9.1897965466158702</v>
+        <v>9.489988213202146</v>
       </c>
       <c r="H1" s="37">
-        <v>5.7006499367053944</v>
+        <v>3.1121181119842372</v>
       </c>
       <c r="I1" s="37">
-        <v>5.6275578193680547</v>
+        <v>2.9015048348979495</v>
       </c>
       <c r="J1" s="37">
-        <v>5.7725354861507547</v>
+        <v>3.3310504860295636</v>
       </c>
       <c r="K1" s="38">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="L1" s="38">
         <v>876</v>
       </c>
       <c r="M1" s="38">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="N1" s="39">
-        <v>2.4326264639408222</v>
+        <v>87.85740776603086</v>
       </c>
       <c r="O1" s="39">
-        <v>0.57709758891276297</v>
+        <v>0.50189945092894894</v>
       </c>
       <c r="P1" s="39">
-        <v>0.58339396294076529</v>
+        <v>0.51330704086229584</v>
       </c>
       <c r="Q1" s="39">
-        <v>36.374687944784924</v>
+        <v>22.927732909190425</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.28424657534246578</v>
+        <v>0.19748858447488585</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.40562248995983935</v>
+        <v>0.30057803468208094</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1972,43 +1970,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>9.6765676999445098</v>
+        <v>9.9350577369051045</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>15.497687865527437</v>
+        <v>16.097864540597552</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.2714697289417565</v>
+        <v>8.471461216646933</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.305352564199476</v>
+        <v>11.461329428488494</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>15.498246797761322</v>
+        <v>15.849224889545203</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.1897965466158702</v>
+        <v>9.489988213202146</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>5.7006499367053944</v>
+        <v>3.1121181119842372</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>5.6275578193680547</v>
+        <v>2.9015048348979495</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>5.7725354861507547</v>
+        <v>3.3310504860295636</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2016,23 +2014,23 @@
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>2.4326264639408222</v>
+        <v>87.85740776603086</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.57709758891276297</v>
+        <v>0.50189945092894894</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.58339396294076529</v>
+        <v>0.51330704086229584</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>36.374687944784924</v>
+        <v>22.927732909190425</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>
@@ -2891,7 +2889,7 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1653,34 +1653,34 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>9.9350577369051045</v>
+        <v>9.5750552440755552</v>
       </c>
       <c r="C1" s="37">
-        <v>16.097864540597552</v>
+        <v>15.446869887566738</v>
       </c>
       <c r="D1" s="37">
-        <v>8.471461216646933</v>
+        <v>8.2362393379294776</v>
       </c>
       <c r="E1" s="37">
-        <v>11.461329428488494</v>
+        <v>11.837756784200176</v>
       </c>
       <c r="F1" s="37">
-        <v>15.849224889545203</v>
+        <v>16.008961678729111</v>
       </c>
       <c r="G1" s="37">
-        <v>9.489988213202146</v>
+        <v>9.9067953114208951</v>
       </c>
       <c r="H1" s="37">
-        <v>3.1121181119842372</v>
+        <v>3.4235156480692246</v>
       </c>
       <c r="I1" s="37">
-        <v>2.9015048348979495</v>
+        <v>3.1309059271261939</v>
       </c>
       <c r="J1" s="37">
-        <v>3.3310504860295636</v>
+        <v>3.7810771683162132</v>
       </c>
       <c r="K1" s="38">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L1" s="38">
         <v>876</v>
@@ -1689,24 +1689,24 @@
         <v>52</v>
       </c>
       <c r="N1" s="39">
-        <v>87.85740776603086</v>
+        <v>86.742501845115441</v>
       </c>
       <c r="O1" s="39">
-        <v>0.50189945092894894</v>
+        <v>0.47093225571622427</v>
       </c>
       <c r="P1" s="39">
-        <v>0.51330704086229584</v>
+        <v>0.47177992951933095</v>
       </c>
       <c r="Q1" s="39">
-        <v>22.927732909190425</v>
+        <v>21.357186228809375</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.19748858447488585</v>
+        <v>0.18264840182648401</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.30057803468208094</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1970,43 +1970,43 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>9.9350577369051045</v>
+        <v>9.5750552440755552</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>16.097864540597552</v>
+        <v>15.446869887566738</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.471461216646933</v>
+        <v>8.2362393379294776</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.461329428488494</v>
+        <v>11.837756784200176</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>15.849224889545203</v>
+        <v>16.008961678729111</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.489988213202146</v>
+        <v>9.9067953114208951</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>3.1121181119842372</v>
+        <v>3.4235156480692246</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>2.9015048348979495</v>
+        <v>3.1309059271261939</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>3.3310504860295636</v>
+        <v>3.7810771683162132</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
@@ -2018,19 +2018,19 @@
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>87.85740776603086</v>
+        <v>86.742501845115441</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.50189945092894894</v>
+        <v>0.47093225571622427</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.51330704086229584</v>
+        <v>0.47177992951933095</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>22.927732909190425</v>
+        <v>21.357186228809375</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="153">
   <si>
     <t>Resources/Process</t>
   </si>
@@ -527,12 +527,6 @@
   </si>
   <si>
     <t>Should be 1</t>
-  </si>
-  <si>
-    <t>Delay_Discharge_AMU</t>
-  </si>
-  <si>
-    <t>Delay_Discharge_Admit</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1054,7 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1310,6 +1304,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1622,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1653,31 +1653,31 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>9.5750552440755552</v>
+        <v>9.6442449082317303</v>
       </c>
       <c r="C1" s="37">
-        <v>15.446869887566738</v>
+        <v>16.024034709732955</v>
       </c>
       <c r="D1" s="37">
-        <v>8.2362393379294776</v>
+        <v>8.2067877806044223</v>
       </c>
       <c r="E1" s="37">
-        <v>11.837756784200176</v>
+        <v>11.907438265403261</v>
       </c>
       <c r="F1" s="37">
-        <v>16.008961678729111</v>
+        <v>15.547793926061498</v>
       </c>
       <c r="G1" s="37">
-        <v>9.9067953114208951</v>
+        <v>10.124476477365306</v>
       </c>
       <c r="H1" s="37">
-        <v>3.4235156480692246</v>
+        <v>3.4531053112230436</v>
       </c>
       <c r="I1" s="37">
-        <v>3.1309059271261939</v>
+        <v>3.2767801129094156</v>
       </c>
       <c r="J1" s="37">
-        <v>3.7810771683162132</v>
+        <v>3.685650137984497</v>
       </c>
       <c r="K1" s="38">
         <v>160</v>
@@ -1689,16 +1689,16 @@
         <v>52</v>
       </c>
       <c r="N1" s="39">
-        <v>86.742501845115441</v>
+        <v>87.192904652790475</v>
       </c>
       <c r="O1" s="39">
-        <v>0.47093225571622427</v>
+        <v>0.45867107344831592</v>
       </c>
       <c r="P1" s="39">
-        <v>0.47177992951933095</v>
+        <v>0.46471391752409263</v>
       </c>
       <c r="Q1" s="39">
-        <v>21.357186228809375</v>
+        <v>28.620095749056375</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
@@ -1970,39 +1970,39 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>9.5750552440755552</v>
+        <v>9.6442449082317303</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>15.446869887566738</v>
+        <v>16.024034709732955</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.2362393379294776</v>
+        <v>8.2067877806044223</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.837756784200176</v>
+        <v>11.907438265403261</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>16.008961678729111</v>
+        <v>15.547793926061498</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.9067953114208951</v>
+        <v>10.124476477365306</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>3.4235156480692246</v>
+        <v>3.4531053112230436</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>3.1309059271261939</v>
+        <v>3.2767801129094156</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>3.7810771683162132</v>
+        <v>3.685650137984497</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
@@ -2018,19 +2018,19 @@
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>86.742501845115441</v>
+        <v>87.192904652790475</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.47093225571622427</v>
+        <v>0.45867107344831592</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.47177992951933095</v>
+        <v>0.46471391752409263</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>21.357186228809375</v>
+        <v>28.620095749056375</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2151,16 +2151,10 @@
     <col min="3" max="5" width="8.88671875" style="48"/>
     <col min="6" max="6" width="13.21875" style="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="48"/>
-    <col min="9" max="9" width="13.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="48"/>
-    <col min="12" max="12" width="13.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="48"/>
+    <col min="8" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -2175,20 +2169,8 @@
       <c r="G1" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="85" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>61</v>
       </c>
@@ -2207,20 +2189,8 @@
       <c r="G2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>62</v>
       </c>
@@ -2233,26 +2203,14 @@
       <c r="D3" s="77">
         <v>15</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="105">
         <v>5</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="106">
         <v>0.6</v>
       </c>
-      <c r="I3" s="76">
-        <v>5</v>
-      </c>
-      <c r="J3" s="88">
-        <v>0.16</v>
-      </c>
-      <c r="L3" s="76">
-        <v>5</v>
-      </c>
-      <c r="M3" s="88">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>63</v>
       </c>
@@ -2265,26 +2223,14 @@
       <c r="D4" s="77">
         <v>30</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="105">
         <v>10</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="106">
         <v>0.16</v>
       </c>
-      <c r="I4" s="76">
-        <v>10</v>
-      </c>
-      <c r="J4" s="88">
-        <v>0.05</v>
-      </c>
-      <c r="L4" s="76">
-        <v>10</v>
-      </c>
-      <c r="M4" s="88">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
         <v>92</v>
       </c>
@@ -2297,26 +2243,14 @@
       <c r="D5" s="77">
         <v>20</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="105">
         <v>15</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="106">
         <v>0.05</v>
       </c>
-      <c r="I5" s="76">
-        <v>15</v>
-      </c>
-      <c r="J5" s="88">
-        <v>0.06</v>
-      </c>
-      <c r="L5" s="76">
-        <v>15</v>
-      </c>
-      <c r="M5" s="88">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>93</v>
       </c>
@@ -2329,26 +2263,14 @@
       <c r="D6" s="77">
         <v>20</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="105">
         <v>20</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="106">
         <v>0.03</v>
       </c>
-      <c r="I6" s="76">
-        <v>20</v>
-      </c>
-      <c r="J6" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="76">
-        <v>20</v>
-      </c>
-      <c r="M6" s="88">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>94</v>
       </c>
@@ -2361,26 +2283,14 @@
       <c r="D7" s="77">
         <v>40</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="105">
         <v>25</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="106">
         <v>0.02</v>
       </c>
-      <c r="I7" s="76">
-        <v>25</v>
-      </c>
-      <c r="J7" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="L7" s="76">
-        <v>25</v>
-      </c>
-      <c r="M7" s="88">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
         <v>95</v>
       </c>
@@ -2393,26 +2303,14 @@
       <c r="D8" s="77">
         <v>40</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="105">
         <v>30</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="106">
         <v>0.02</v>
       </c>
-      <c r="I8" s="76">
-        <v>30</v>
-      </c>
-      <c r="J8" s="88">
-        <v>0.05</v>
-      </c>
-      <c r="L8" s="76">
-        <v>30</v>
-      </c>
-      <c r="M8" s="88">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>96</v>
       </c>
@@ -2425,46 +2323,22 @@
       <c r="D9" s="77">
         <v>40</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="105">
         <v>35</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="106">
         <v>0.01</v>
       </c>
-      <c r="I9" s="76">
-        <v>35</v>
-      </c>
-      <c r="J9" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="L9" s="76">
-        <v>35</v>
-      </c>
-      <c r="M9" s="88">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="76">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="105">
         <v>40</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="106">
         <v>0.01</v>
       </c>
-      <c r="I10" s="76">
-        <v>45</v>
-      </c>
-      <c r="J10" s="88">
-        <v>0.04</v>
-      </c>
-      <c r="L10" s="76">
-        <v>40</v>
-      </c>
-      <c r="M10" s="88">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>90</v>
       </c>
@@ -2474,230 +2348,88 @@
       <c r="D11" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="105">
         <v>45</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="106">
         <v>0.01</v>
       </c>
-      <c r="I11" s="76">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="105">
         <v>50</v>
       </c>
-      <c r="J11" s="88">
-        <v>0.04</v>
-      </c>
-      <c r="L11" s="76">
-        <v>45</v>
-      </c>
-      <c r="M11" s="88">
+      <c r="G12" s="106">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="105">
+        <v>55</v>
+      </c>
+      <c r="G13" s="106">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="105">
+        <v>60</v>
+      </c>
+      <c r="G14" s="106">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="105">
+        <v>120</v>
+      </c>
+      <c r="G15" s="106">
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="76">
-        <v>50</v>
-      </c>
-      <c r="G12" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="I12" s="76">
-        <v>55</v>
-      </c>
-      <c r="J12" s="88">
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="76">
-        <v>50</v>
-      </c>
-      <c r="M12" s="88">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="76">
-        <v>55</v>
-      </c>
-      <c r="G13" s="88">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="105">
+        <v>180</v>
+      </c>
+      <c r="G16" s="106">
         <v>0.01</v>
       </c>
-      <c r="I13" s="76">
-        <v>60</v>
-      </c>
-      <c r="J13" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="L13" s="76">
-        <v>55</v>
-      </c>
-      <c r="M13" s="88">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="76">
-        <v>60</v>
-      </c>
-      <c r="G14" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="I14" s="76">
-        <v>120</v>
-      </c>
-      <c r="J14" s="88">
-        <v>0.25</v>
-      </c>
-      <c r="L14" s="76">
-        <v>60</v>
-      </c>
-      <c r="M14" s="88">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="76">
-        <v>120</v>
-      </c>
-      <c r="G15" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="I15" s="76">
-        <v>180</v>
-      </c>
-      <c r="J15" s="88">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="76">
-        <v>120</v>
-      </c>
-      <c r="M15" s="88">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="76">
-        <v>180</v>
-      </c>
-      <c r="G16" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="76">
-        <v>240</v>
-      </c>
-      <c r="J16" s="88">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L16" s="76">
-        <v>180</v>
-      </c>
-      <c r="M16" s="88">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="76"/>
-      <c r="G17" s="88"/>
-      <c r="I17" s="76">
-        <v>300</v>
-      </c>
-      <c r="J17" s="88">
-        <v>0.05</v>
-      </c>
-      <c r="L17" s="76">
-        <v>240</v>
-      </c>
-      <c r="M17" s="88">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="76"/>
-      <c r="G18" s="88"/>
-      <c r="I18" s="76">
-        <v>360</v>
-      </c>
-      <c r="J18" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="L18" s="76">
-        <v>300</v>
-      </c>
-      <c r="M18" s="88">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="76"/>
-      <c r="G19" s="88"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="88"/>
-      <c r="L19" s="76">
-        <v>360</v>
-      </c>
-      <c r="M19" s="88">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="76"/>
-      <c r="G20" s="88"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="88"/>
-      <c r="L20" s="76">
-        <v>420</v>
-      </c>
-      <c r="M20" s="88">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="76"/>
-      <c r="G21" s="88"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="88"/>
-      <c r="L21" s="76">
-        <v>480</v>
-      </c>
-      <c r="M21" s="88">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="76"/>
-      <c r="G22" s="88"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="88"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="88"/>
-    </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="76"/>
-      <c r="G23" s="88"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="88"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="88"/>
-    </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="86" t="s">
         <v>152</v>
       </c>
       <c r="G24" s="90">
         <f>SUM(G3:G23)</f>
         <v>1.0000000000000002</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="J24" s="90">
-        <f>SUM(J3:J23)</f>
-        <v>1</v>
-      </c>
-      <c r="L24" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="M24" s="90">
-        <f>SUM(M3:M23)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2889,8 +2621,8 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3002,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -3100,9 +2832,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3486,9 +3216,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3913,7 +3641,9 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4326,21 +4056,21 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="86" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B24" s="90">
         <f>SUM(B3:B23)</f>
         <v>1</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E24" s="90">
         <f>SUM(E3:E23)</f>
         <v>1</v>
       </c>
       <c r="G24" s="86" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="H24" s="90">
         <f>SUM(H3:H23)</f>
@@ -8836,10 +8566,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8859,7 +8589,7 @@
     <col min="13" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
@@ -8888,7 +8618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
@@ -8917,7 +8647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="76">
         <v>0</v>
       </c>
@@ -8948,11 +8678,8 @@
       <c r="L3" s="88">
         <v>0.05</v>
       </c>
-      <c r="M3" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="76">
         <v>1</v>
       </c>
@@ -8983,11 +8710,8 @@
       <c r="L4" s="88">
         <v>0.2</v>
       </c>
-      <c r="M4" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="76">
         <v>2</v>
       </c>
@@ -9018,11 +8742,8 @@
       <c r="L5" s="88">
         <v>0.22</v>
       </c>
-      <c r="M5" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
         <v>3</v>
       </c>
@@ -9048,11 +8769,8 @@
       <c r="L6" s="88">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M6" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76">
         <v>4</v>
       </c>
@@ -9071,11 +8789,8 @@
       <c r="L7" s="88">
         <v>0.12</v>
       </c>
-      <c r="M7" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="76">
         <v>5</v>
       </c>
@@ -9094,11 +8809,8 @@
       <c r="L8" s="88">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M8" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="76">
         <v>6</v>
       </c>
@@ -9117,11 +8829,8 @@
       <c r="L9" s="88">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M9" s="48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="76">
         <v>7</v>
       </c>
@@ -9140,11 +8849,8 @@
       <c r="L10" s="88">
         <v>0.04</v>
       </c>
-      <c r="M10" s="48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="76">
         <v>8</v>
       </c>
@@ -9163,11 +8869,8 @@
       <c r="L11" s="88">
         <v>0.02</v>
       </c>
-      <c r="M11" s="48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="76">
         <v>9</v>
       </c>
@@ -9186,11 +8889,8 @@
       <c r="L12" s="88">
         <v>0.03</v>
       </c>
-      <c r="M12" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="76">
         <v>10</v>
       </c>
@@ -9209,11 +8909,8 @@
       <c r="L13" s="88">
         <v>0.02</v>
       </c>
-      <c r="M13" s="48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
         <v>11</v>
       </c>
@@ -9232,11 +8929,8 @@
       <c r="L14" s="88">
         <v>0.02</v>
       </c>
-      <c r="M14" s="48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="76">
         <v>12</v>
       </c>
@@ -9252,7 +8946,7 @@
       <c r="K15" s="76"/>
       <c r="L15" s="88"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
         <v>13</v>
       </c>
@@ -9389,21 +9083,21 @@
         <v>100</v>
       </c>
       <c r="E24" s="86" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="F24" s="90">
         <f>SUM(F3:F23)</f>
         <v>1</v>
       </c>
       <c r="H24" s="86" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I24" s="90">
         <f>SUM(I3:I23)</f>
         <v>1</v>
       </c>
       <c r="K24" s="86" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="L24" s="90">
         <f>SUM(L3:L23)</f>

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="154">
   <si>
     <t>Resources/Process</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>Should be 1</t>
+  </si>
+  <si>
+    <t>Wards</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1057,7 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1270,6 +1273,12 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,11 +1315,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1622,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1653,60 +1659,60 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>9.6442449082317303</v>
+        <v>9.4589464912202104</v>
       </c>
       <c r="C1" s="37">
-        <v>16.024034709732955</v>
+        <v>14.31320498059012</v>
       </c>
       <c r="D1" s="37">
-        <v>8.2067877806044223</v>
+        <v>8.2069055269525197</v>
       </c>
       <c r="E1" s="37">
-        <v>11.907438265403261</v>
+        <v>11.078421712129863</v>
       </c>
       <c r="F1" s="37">
-        <v>15.547793926061498</v>
+        <v>14.701766434530448</v>
       </c>
       <c r="G1" s="37">
-        <v>10.124476477365306</v>
+        <v>9.1863956517987368</v>
       </c>
       <c r="H1" s="37">
-        <v>3.4531053112230436</v>
+        <v>4.1269934665687424</v>
       </c>
       <c r="I1" s="37">
-        <v>3.2767801129094156</v>
+        <v>4.1605716843685601</v>
       </c>
       <c r="J1" s="37">
-        <v>3.685650137984497</v>
+        <v>4.0719431225693361</v>
       </c>
       <c r="K1" s="38">
-        <v>160</v>
+        <v>1670</v>
       </c>
       <c r="L1" s="38">
-        <v>876</v>
+        <v>8610</v>
       </c>
       <c r="M1" s="38">
-        <v>52</v>
+        <v>408</v>
       </c>
       <c r="N1" s="39">
-        <v>87.192904652790475</v>
+        <v>90.002085890379433</v>
       </c>
       <c r="O1" s="39">
-        <v>0.45867107344831592</v>
+        <v>0.57772506378539623</v>
       </c>
       <c r="P1" s="39">
-        <v>0.46471391752409263</v>
+        <v>0.46775266368983515</v>
       </c>
       <c r="Q1" s="39">
-        <v>28.620095749056375</v>
+        <v>26.384146363381245</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.18264840182648401</v>
+        <v>0.19396051103368175</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.32500000000000001</v>
+        <v>0.24431137724550897</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1970,67 +1976,67 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>9.6442449082317303</v>
+        <v>9.4589464912202104</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>16.024034709732955</v>
+        <v>14.31320498059012</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.2067877806044223</v>
+        <v>8.2069055269525197</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.907438265403261</v>
+        <v>11.078421712129863</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>15.547793926061498</v>
+        <v>14.701766434530448</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>10.124476477365306</v>
+        <v>9.1863956517987368</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>3.4531053112230436</v>
+        <v>4.1269934665687424</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>3.2767801129094156</v>
+        <v>4.1605716843685601</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>3.685650137984497</v>
+        <v>4.0719431225693361</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>1670</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
-        <v>876</v>
+        <v>8610</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>52</v>
+        <v>408</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>87.192904652790475</v>
+        <v>90.002085890379433</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.45867107344831592</v>
+        <v>0.57772506378539623</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.46471391752409263</v>
+        <v>0.46775266368983515</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>28.620095749056375</v>
+        <v>26.384146363381245</v>
       </c>
       <c r="R13" s="44" t="e">
         <f t="shared" si="3"/>
@@ -2158,11 +2164,11 @@
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
       <c r="F1" s="50" t="s">
         <v>26</v>
       </c>
@@ -2203,10 +2209,10 @@
       <c r="D3" s="77">
         <v>15</v>
       </c>
-      <c r="F3" s="105">
+      <c r="F3" s="93">
         <v>5</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="94">
         <v>0.6</v>
       </c>
     </row>
@@ -2223,10 +2229,10 @@
       <c r="D4" s="77">
         <v>30</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="93">
         <v>10</v>
       </c>
-      <c r="G4" s="106">
+      <c r="G4" s="94">
         <v>0.16</v>
       </c>
     </row>
@@ -2243,10 +2249,10 @@
       <c r="D5" s="77">
         <v>20</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="93">
         <v>15</v>
       </c>
-      <c r="G5" s="106">
+      <c r="G5" s="94">
         <v>0.05</v>
       </c>
     </row>
@@ -2263,10 +2269,10 @@
       <c r="D6" s="77">
         <v>20</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="93">
         <v>20</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="94">
         <v>0.03</v>
       </c>
     </row>
@@ -2283,10 +2289,10 @@
       <c r="D7" s="77">
         <v>40</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="93">
         <v>25</v>
       </c>
-      <c r="G7" s="106">
+      <c r="G7" s="94">
         <v>0.02</v>
       </c>
     </row>
@@ -2303,10 +2309,10 @@
       <c r="D8" s="77">
         <v>40</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="93">
         <v>30</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="94">
         <v>0.02</v>
       </c>
     </row>
@@ -2323,18 +2329,18 @@
       <c r="D9" s="77">
         <v>40</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="93">
         <v>35</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="94">
         <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="105">
+      <c r="F10" s="93">
         <v>40</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="94">
         <v>0.01</v>
       </c>
     </row>
@@ -2348,80 +2354,80 @@
       <c r="D11" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="93">
         <v>45</v>
       </c>
-      <c r="G11" s="106">
+      <c r="G11" s="94">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="105">
+      <c r="F12" s="93">
         <v>50</v>
       </c>
-      <c r="G12" s="106">
+      <c r="G12" s="94">
         <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="105">
+      <c r="F13" s="93">
         <v>55</v>
       </c>
-      <c r="G13" s="106">
+      <c r="G13" s="94">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="105">
+      <c r="F14" s="93">
         <v>60</v>
       </c>
-      <c r="G14" s="106">
+      <c r="G14" s="94">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="105">
+      <c r="F15" s="93">
         <v>120</v>
       </c>
-      <c r="G15" s="106">
+      <c r="G15" s="94">
         <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="105">
+      <c r="F16" s="93">
         <v>180</v>
       </c>
-      <c r="G16" s="106">
+      <c r="G16" s="94">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="105"/>
-      <c r="G17" s="106"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="105"/>
-      <c r="G19" s="106"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="105"/>
-      <c r="G22" s="106"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="86" t="s">
@@ -2621,8 +2627,8 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2640,28 +2646,30 @@
       <c r="B1" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="103"/>
+      <c r="J1" s="105"/>
       <c r="K1" s="83"/>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103" t="s">
+      <c r="M1" s="105"/>
+      <c r="N1" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="103"/>
+      <c r="O1" s="105"/>
       <c r="P1" s="83"/>
-      <c r="Q1" s="103" t="s">
+      <c r="Q1" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="101" t="s">
+      <c r="R1" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="101"/>
+      <c r="T1" s="103"/>
       <c r="U1" s="83"/>
       <c r="V1" s="84" t="s">
         <v>140</v>
@@ -2680,16 +2688,19 @@
       <c r="J2" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="104">
-        <v>0</v>
-      </c>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104">
-        <v>0</v>
-      </c>
-      <c r="O2" s="104"/>
+      <c r="L2" s="106">
+        <v>0</v>
+      </c>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106">
+        <v>0</v>
+      </c>
+      <c r="O2" s="106"/>
       <c r="Q2" s="48">
         <v>12</v>
+      </c>
+      <c r="R2" s="48">
+        <v>48</v>
       </c>
       <c r="S2" s="49">
         <v>0</v>
@@ -2726,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2811,14 +2822,13 @@
       <c r="B19" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9875,7 +9885,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="95" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -9910,7 +9920,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="63">
         <v>2</v>
       </c>
@@ -9943,7 +9953,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="63">
         <v>2</v>
       </c>
@@ -10423,7 +10433,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="97" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -10459,7 +10469,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="63">
         <v>7</v>
       </c>
@@ -10493,7 +10503,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="63">
         <v>5</v>
       </c>
@@ -11479,7 +11489,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="97" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="63">
@@ -11517,7 +11527,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="63">
         <v>7</v>
       </c>
@@ -11545,7 +11555,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="63">
         <v>5</v>
       </c>
@@ -12659,16 +12669,16 @@
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="J1" s="98" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="J1" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="100"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6396" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId1"/>
@@ -1280,6 +1280,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1316,13 +1323,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1331,7 +1331,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1674,9 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1707,390 +1745,582 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>9.1796881524878362</v>
+        <v>9.8303276593172519</v>
       </c>
       <c r="C1" s="37">
-        <v>13.782035442323108</v>
+        <v>15.293182870586527</v>
       </c>
       <c r="D1" s="37">
-        <v>7.9114200360896927</v>
+        <v>8.4978983801917245</v>
       </c>
       <c r="E1" s="37">
-        <v>10.685446100554138</v>
+        <v>11.622144142232438</v>
       </c>
       <c r="F1" s="37">
-        <v>14.185736904289326</v>
+        <v>15.492027712889239</v>
       </c>
       <c r="G1" s="37">
-        <v>8.8622896641075979</v>
+        <v>9.7155973534039273</v>
       </c>
       <c r="H1" s="37">
-        <v>4.8082404359397497</v>
+        <v>3.9806332844868182</v>
       </c>
       <c r="I1" s="37">
-        <v>5.1484601305116113</v>
+        <v>4.0655990142875629</v>
       </c>
       <c r="J1" s="37">
-        <v>4.3168946313828549</v>
+        <v>3.8516454555501687</v>
       </c>
       <c r="K1" s="38">
-        <v>1663</v>
+        <v>696</v>
       </c>
       <c r="L1" s="38">
-        <v>8599</v>
+        <v>8550</v>
       </c>
       <c r="M1" s="38">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="N1" s="39">
-        <v>87.839617518606772</v>
+        <v>91.267905295934739</v>
       </c>
       <c r="O1" s="39">
-        <v>0.40410055149801072</v>
+        <v>0.38543059120754269</v>
       </c>
       <c r="P1" s="39">
-        <v>0.36069223633039982</v>
+        <v>0.21530684731548061</v>
       </c>
       <c r="Q1" s="39">
-        <v>23.48302814879268</v>
+        <v>18.154383700964612</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>0.19339458076520524</v>
+        <v>8.1403508771929825E-2</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.23150932050511125</v>
+        <v>0.56752873563218387</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="37">
-        <v>10.131348527000679</v>
+        <v>9.0989441587044162</v>
       </c>
       <c r="C2" s="37">
-        <v>15.734716562136082</v>
+        <v>13.713484043976541</v>
       </c>
       <c r="D2" s="37">
-        <v>8.7669249420239428</v>
+        <v>7.8821906644377417</v>
       </c>
       <c r="E2" s="37">
-        <v>12.066628077698821</v>
+        <v>10.68843682131312</v>
       </c>
       <c r="F2" s="37">
-        <v>16.104644790865361</v>
+        <v>14.264540183689631</v>
       </c>
       <c r="G2" s="37">
-        <v>10.049892631060107</v>
+        <v>8.9144816427350175</v>
       </c>
       <c r="H2" s="37">
-        <v>4.6538924433168676</v>
+        <v>4.2022980207916234</v>
       </c>
       <c r="I2" s="37">
-        <v>5.0217086208478561</v>
+        <v>4.2596009717898911</v>
       </c>
       <c r="J2" s="37">
-        <v>4.1428887814542836</v>
+        <v>4.1036827704638164</v>
       </c>
       <c r="K2" s="38">
-        <v>289</v>
+        <v>1618</v>
       </c>
       <c r="L2" s="38">
-        <v>8661</v>
+        <v>8517</v>
       </c>
       <c r="M2" s="38">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="N2" s="39">
-        <v>67.868021718701669</v>
+        <v>88.73448488811772</v>
       </c>
       <c r="O2" s="39">
-        <v>0.9436054510978874</v>
+        <v>0.56065272080893414</v>
       </c>
       <c r="P2" s="39">
-        <v>0.14812955392210839</v>
+        <v>0.43706895182662292</v>
       </c>
       <c r="Q2" s="39">
-        <v>16.573408035480846</v>
+        <v>26.505064970459934</v>
       </c>
       <c r="R2" s="40">
         <f>K2/L2</f>
-        <v>3.3367971365893083E-2</v>
+        <v>0.18997299518609839</v>
       </c>
       <c r="S2" s="40">
         <f>M2/K2</f>
-        <v>0.18685121107266436</v>
+        <v>0.24227441285537701</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="37">
-        <v>9.1081954825917819</v>
+        <v>9.1019155791060076</v>
       </c>
       <c r="C3" s="37">
-        <v>13.492122485107636</v>
+        <v>13.399488252369986</v>
       </c>
       <c r="D3" s="37">
-        <v>7.9531260201897682</v>
+        <v>7.934657949106426</v>
       </c>
       <c r="E3" s="37">
-        <v>10.589166878783873</v>
+        <v>10.511462467915248</v>
       </c>
       <c r="F3" s="37">
-        <v>14.08570582275016</v>
+        <v>13.89850631766465</v>
       </c>
       <c r="G3" s="37">
-        <v>8.8377312393524239</v>
+        <v>8.7490085708932046</v>
       </c>
       <c r="H3" s="37">
-        <v>4.9037139538799464</v>
+        <v>4.0967810451876607</v>
       </c>
       <c r="I3" s="37">
-        <v>5.4744160561580308</v>
+        <v>3.9743075840000381</v>
       </c>
       <c r="J3" s="37">
-        <v>4.1290819890026391</v>
+        <v>4.2572580875259955</v>
       </c>
       <c r="K3" s="38">
-        <v>1739</v>
+        <v>1610</v>
       </c>
       <c r="L3" s="38">
-        <v>8640</v>
+        <v>8501</v>
       </c>
       <c r="M3" s="38">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="N3" s="39">
-        <v>88.248417464081612</v>
+        <v>86.150030138705858</v>
       </c>
       <c r="O3" s="39">
-        <v>0.41468494911564596</v>
+        <v>0.55724509236743036</v>
       </c>
       <c r="P3" s="39">
-        <v>0.3199916697346441</v>
+        <v>0.43506702706858502</v>
       </c>
       <c r="Q3" s="39">
-        <v>22.118336542419069</v>
+        <v>27.519819907843253</v>
       </c>
       <c r="R3" s="40">
         <f>K3/L3</f>
-        <v>0.20127314814814815</v>
+        <v>0.18938948359016586</v>
       </c>
       <c r="S3" s="40">
         <f>M3/K3</f>
-        <v>0.22541690626797009</v>
+        <v>0.25900621118012424</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="37">
-        <v>9.7379767296667641</v>
+        <v>9.3525955924191511</v>
       </c>
       <c r="C4" s="37">
-        <v>14.866721837484782</v>
+        <v>13.918597700077566</v>
       </c>
       <c r="D4" s="37">
-        <v>8.504317684760375</v>
+        <v>8.1769371189725941</v>
       </c>
       <c r="E4" s="37">
-        <v>11.543444010334888</v>
+        <v>10.984245605731219</v>
       </c>
       <c r="F4" s="37">
-        <v>15.442353523113562</v>
+        <v>14.357537605101081</v>
       </c>
       <c r="G4" s="37">
-        <v>9.6595905774803708</v>
+        <v>9.243687406093386</v>
       </c>
       <c r="H4" s="37">
-        <v>4.7495477279507128</v>
+        <v>4.0452621138784499</v>
       </c>
       <c r="I4" s="37">
-        <v>5.046199441594454</v>
+        <v>3.9252827119321205</v>
       </c>
       <c r="J4" s="37">
-        <v>4.2547445581949415</v>
+        <v>4.2106592543067416</v>
       </c>
       <c r="K4" s="38">
-        <v>394</v>
+        <v>1501</v>
       </c>
       <c r="L4" s="38">
-        <v>8583</v>
+        <v>8555</v>
       </c>
       <c r="M4" s="38">
-        <v>54</v>
+        <v>404</v>
       </c>
       <c r="N4" s="39">
-        <v>57.042258254456868</v>
+        <v>88.749798552849171</v>
       </c>
       <c r="O4" s="39">
-        <v>0.16558268239292423</v>
+        <v>0.53614609588202455</v>
       </c>
       <c r="P4" s="39">
-        <v>8.9541507893226402E-2</v>
+        <v>0.41221528128928836</v>
       </c>
       <c r="Q4" s="39">
-        <v>38.219480191651293</v>
+        <v>27.785914178453055</v>
       </c>
       <c r="R4" s="40">
         <f t="shared" ref="R4:R10" si="0">K4/L4</f>
-        <v>4.59046953279739E-2</v>
+        <v>0.17545295149035653</v>
       </c>
       <c r="S4" s="40">
         <f t="shared" ref="S4:S10" si="1">M4/K4</f>
-        <v>0.13705583756345177</v>
+        <v>0.26915389740173218</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40" t="e">
+      <c r="B5" s="37">
+        <v>9.2804238745076262</v>
+      </c>
+      <c r="C5" s="37">
+        <v>13.87644455185645</v>
+      </c>
+      <c r="D5" s="37">
+        <v>8.0619439740012115</v>
+      </c>
+      <c r="E5" s="37">
+        <v>10.738121502529241</v>
+      </c>
+      <c r="F5" s="37">
+        <v>14.275486036889541</v>
+      </c>
+      <c r="G5" s="37">
+        <v>8.862376308575298</v>
+      </c>
+      <c r="H5" s="37">
+        <v>4.2682578668318394</v>
+      </c>
+      <c r="I5" s="37">
+        <v>4.3623934450788715</v>
+      </c>
+      <c r="J5" s="37">
+        <v>4.119155226043187</v>
+      </c>
+      <c r="K5" s="38">
+        <v>1415</v>
+      </c>
+      <c r="L5" s="38">
+        <v>8513</v>
+      </c>
+      <c r="M5" s="38">
+        <v>427</v>
+      </c>
+      <c r="N5" s="39">
+        <v>88.424700167929331</v>
+      </c>
+      <c r="O5" s="39">
+        <v>0.52453304245441257</v>
+      </c>
+      <c r="P5" s="39">
+        <v>0.39414315417750967</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>25.697271559167273</v>
+      </c>
+      <c r="R5" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="40" t="e">
+        <v>0.16621637495594974</v>
+      </c>
+      <c r="S5" s="40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.30176678445229682</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40" t="e">
+      <c r="B6" s="37">
+        <v>9.1056405787736239</v>
+      </c>
+      <c r="C6" s="37">
+        <v>13.472634981900145</v>
+      </c>
+      <c r="D6" s="37">
+        <v>7.912018080562925</v>
+      </c>
+      <c r="E6" s="37">
+        <v>10.684581280914205</v>
+      </c>
+      <c r="F6" s="37">
+        <v>14.001767060651945</v>
+      </c>
+      <c r="G6" s="37">
+        <v>8.9117713629523383</v>
+      </c>
+      <c r="H6" s="37">
+        <v>4.0859134059919198</v>
+      </c>
+      <c r="I6" s="37">
+        <v>4.0662557700908843</v>
+      </c>
+      <c r="J6" s="37">
+        <v>4.1069319861011113</v>
+      </c>
+      <c r="K6" s="38">
+        <v>1819</v>
+      </c>
+      <c r="L6" s="38">
+        <v>8541</v>
+      </c>
+      <c r="M6" s="38">
+        <v>405</v>
+      </c>
+      <c r="N6" s="39">
+        <v>86.489826254181608</v>
+      </c>
+      <c r="O6" s="39">
+        <v>0.59351625059613533</v>
+      </c>
+      <c r="P6" s="39">
+        <v>0.48557340613016525</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>27.861055437030085</v>
+      </c>
+      <c r="R6" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="40" t="e">
+        <v>0.21297271982203489</v>
+      </c>
+      <c r="S6" s="40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.22264980758658603</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40" t="e">
+      <c r="B7" s="37">
+        <v>9.3297431979890639</v>
+      </c>
+      <c r="C7" s="37">
+        <v>13.989151074426905</v>
+      </c>
+      <c r="D7" s="37">
+        <v>8.0972017288158646</v>
+      </c>
+      <c r="E7" s="37">
+        <v>10.91894887846332</v>
+      </c>
+      <c r="F7" s="37">
+        <v>14.530841233982143</v>
+      </c>
+      <c r="G7" s="37">
+        <v>9.0608436183872225</v>
+      </c>
+      <c r="H7" s="37">
+        <v>4.2849296788645237</v>
+      </c>
+      <c r="I7" s="37">
+        <v>4.3185732124763936</v>
+      </c>
+      <c r="J7" s="37">
+        <v>4.2252543965769451</v>
+      </c>
+      <c r="K7" s="38">
+        <v>1704</v>
+      </c>
+      <c r="L7" s="38">
+        <v>8742</v>
+      </c>
+      <c r="M7" s="38">
+        <v>411</v>
+      </c>
+      <c r="N7" s="39">
+        <v>88.870898584361498</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0.57830752741873481</v>
+      </c>
+      <c r="P7" s="39">
+        <v>0.45748794851511043</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>27.842687489561229</v>
+      </c>
+      <c r="R7" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="40" t="e">
+        <v>0.19492107069320522</v>
+      </c>
+      <c r="S7" s="40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.24119718309859156</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40" t="e">
+      <c r="B8" s="37">
+        <v>9.1451429584520145</v>
+      </c>
+      <c r="C8" s="37">
+        <v>13.574917992541483</v>
+      </c>
+      <c r="D8" s="37">
+        <v>7.9604504677545425</v>
+      </c>
+      <c r="E8" s="37">
+        <v>10.762987296802665</v>
+      </c>
+      <c r="F8" s="37">
+        <v>14.405835009742002</v>
+      </c>
+      <c r="G8" s="37">
+        <v>8.8913821380790434</v>
+      </c>
+      <c r="H8" s="37">
+        <v>4.1719120963702689</v>
+      </c>
+      <c r="I8" s="37">
+        <v>4.247036437303473</v>
+      </c>
+      <c r="J8" s="37">
+        <v>4.0608579193077308</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1631</v>
+      </c>
+      <c r="L8" s="38">
+        <v>8594</v>
+      </c>
+      <c r="M8" s="38">
+        <v>424</v>
+      </c>
+      <c r="N8" s="39">
+        <v>87.433016294391379</v>
+      </c>
+      <c r="O8" s="39">
+        <v>0.56858553633226039</v>
+      </c>
+      <c r="P8" s="39">
+        <v>0.44818507534815694</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>27.01555784466629</v>
+      </c>
+      <c r="R8" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="40" t="e">
+        <v>0.18978356993251105</v>
+      </c>
+      <c r="S8" s="40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.25996321275291234</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40" t="e">
+      <c r="B9" s="37">
+        <v>9.40600366421112</v>
+      </c>
+      <c r="C9" s="37">
+        <v>14.099412138046683</v>
+      </c>
+      <c r="D9" s="37">
+        <v>8.1814006450614531</v>
+      </c>
+      <c r="E9" s="37">
+        <v>10.785657210206478</v>
+      </c>
+      <c r="F9" s="37">
+        <v>14.226194282264803</v>
+      </c>
+      <c r="G9" s="37">
+        <v>9.004601494364076</v>
+      </c>
+      <c r="H9" s="37">
+        <v>4.2563062464040602</v>
+      </c>
+      <c r="I9" s="37">
+        <v>4.2122553923413015</v>
+      </c>
+      <c r="J9" s="37">
+        <v>4.3039287581086976</v>
+      </c>
+      <c r="K9" s="38">
+        <v>1870</v>
+      </c>
+      <c r="L9" s="38">
+        <v>8635</v>
+      </c>
+      <c r="M9" s="38">
+        <v>391</v>
+      </c>
+      <c r="N9" s="39">
+        <v>87.765763495931708</v>
+      </c>
+      <c r="O9" s="39">
+        <v>0.60476867527075562</v>
+      </c>
+      <c r="P9" s="39">
+        <v>0.495755704613213</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>30.11547740027628</v>
+      </c>
+      <c r="R9" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" s="40" t="e">
+        <v>0.21656050955414013</v>
+      </c>
+      <c r="S9" s="40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.20909090909090908</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40" t="e">
+      <c r="B10" s="37">
+        <v>9.003296147773959</v>
+      </c>
+      <c r="C10" s="37">
+        <v>13.385886283039543</v>
+      </c>
+      <c r="D10" s="37">
+        <v>7.8247772700503075</v>
+      </c>
+      <c r="E10" s="37">
+        <v>10.509291467925102</v>
+      </c>
+      <c r="F10" s="37">
+        <v>13.870391680726781</v>
+      </c>
+      <c r="G10" s="37">
+        <v>8.7592118845815694</v>
+      </c>
+      <c r="H10" s="37">
+        <v>4.2288580609899764</v>
+      </c>
+      <c r="I10" s="37">
+        <v>4.2794236457973849</v>
+      </c>
+      <c r="J10" s="37">
+        <v>4.1412109824909411</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1755</v>
+      </c>
+      <c r="L10" s="38">
+        <v>8591</v>
+      </c>
+      <c r="M10" s="38">
+        <v>418</v>
+      </c>
+      <c r="N10" s="39">
+        <v>87.034417050996879</v>
+      </c>
+      <c r="O10" s="39">
+        <v>0.59336801786936799</v>
+      </c>
+      <c r="P10" s="39">
+        <v>0.46970411403788942</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>28.958202286395224</v>
+      </c>
+      <c r="R10" s="40">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="40" t="e">
+        <v>0.20428355255499941</v>
+      </c>
+      <c r="S10" s="40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.23817663817663817</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2120,179 +2350,179 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>9.5393022229367652</v>
+        <v>9.265403341125424</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>14.468899081762903</v>
+        <v>13.872319988882182</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.2839471707659449</v>
+        <v>8.0529476278954792</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>11.22117126684293</v>
+        <v>10.820587667403306</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>14.954610260254602</v>
+        <v>14.332312712360183</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.3523760280001245</v>
+        <v>9.0112961780065088</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>4.7788486402718195</v>
+        <v>4.162115181979714</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>5.1726960622779883</v>
+        <v>4.1710728185097929</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>4.2109024900086798</v>
+        <v>4.1380584836475327</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>1021.25</v>
+        <v>1561.9</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
-        <v>8620.75</v>
+        <v>8573.9</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>221.25</v>
+        <v>408.4</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>75.249578738961731</v>
+        <v>88.092084072339986</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.48199340852611711</v>
+        <v>0.55025535502075984</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.22958874197009466</v>
+        <v>0.42505075103220219</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>25.09856322958597</v>
-      </c>
-      <c r="R13" s="44" t="e">
+        <v>26.745543477481725</v>
+      </c>
+      <c r="R13" s="44">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="44" t="e">
+        <v>0.18209567365513907</v>
+      </c>
+      <c r="S13" s="44">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106">
+        <v>0.28108077922273511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="94">
         <v>8.24</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="94">
         <v>15.22</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="94">
         <v>5.83</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="94">
         <v>10.43</v>
       </c>
-      <c r="F14" s="106">
+      <c r="F14" s="94">
         <v>16.53</v>
       </c>
-      <c r="G14" s="106">
+      <c r="G14" s="94">
         <v>6.73</v>
       </c>
-      <c r="H14" s="106">
+      <c r="H14" s="94">
         <v>4.46</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="94">
         <v>4.99</v>
       </c>
-      <c r="J14" s="106">
+      <c r="J14" s="94">
         <v>4.18</v>
       </c>
-      <c r="K14" s="106">
+      <c r="K14" s="94">
         <v>1453</v>
       </c>
-      <c r="L14" s="106">
+      <c r="L14" s="94">
         <v>9914</v>
       </c>
-      <c r="M14" s="106">
+      <c r="M14" s="94">
         <v>236</v>
       </c>
-      <c r="R14" s="107">
+      <c r="R14" s="95">
         <f>K14/L14</f>
         <v>0.14656041960863425</v>
       </c>
-      <c r="S14" s="107">
+      <c r="S14" s="95">
         <f>M14/K14</f>
         <v>0.1624225739848589</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106">
+    <row r="15" spans="1:19" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="94">
         <f>ABS((B14-B13)/B14)</f>
-        <v>0.1576823086088307</v>
-      </c>
-      <c r="C15" s="106">
+        <v>0.12444215304920191</v>
+      </c>
+      <c r="C15" s="94">
         <f t="shared" ref="C15:M15" si="4">ABS((C14-C13)/C14)</f>
-        <v>4.934960040979619E-2</v>
-      </c>
-      <c r="D15" s="106">
+        <v>8.8546649876334968E-2</v>
+      </c>
+      <c r="D15" s="94">
         <f t="shared" si="4"/>
-        <v>0.42091718194956174</v>
-      </c>
-      <c r="E15" s="106">
+        <v>0.38129461884999644</v>
+      </c>
+      <c r="E15" s="94">
         <f t="shared" si="4"/>
-        <v>7.5855346773051807E-2</v>
-      </c>
-      <c r="F15" s="106">
+        <v>3.7448482013739785E-2</v>
+      </c>
+      <c r="F15" s="94">
         <f t="shared" si="4"/>
-        <v>9.5304884437108203E-2</v>
-      </c>
-      <c r="G15" s="106">
+        <v>0.13295143905867016</v>
+      </c>
+      <c r="G15" s="94">
         <f t="shared" si="4"/>
-        <v>0.38965468469541215</v>
-      </c>
-      <c r="H15" s="106">
+        <v>0.33897417206634595</v>
+      </c>
+      <c r="H15" s="94">
         <f t="shared" si="4"/>
-        <v>7.1490726518345205E-2</v>
-      </c>
-      <c r="I15" s="106">
+        <v>6.6790317941768165E-2</v>
+      </c>
+      <c r="I15" s="94">
         <f t="shared" si="4"/>
-        <v>3.6612437330258131E-2</v>
-      </c>
-      <c r="J15" s="106">
+        <v>0.16411366362529203</v>
+      </c>
+      <c r="J15" s="94">
         <f t="shared" si="4"/>
-        <v>7.3929401934641299E-3</v>
-      </c>
-      <c r="K15" s="106">
+        <v>1.0033855586714597E-2</v>
+      </c>
+      <c r="K15" s="94">
         <f t="shared" si="4"/>
-        <v>0.29714384033035102</v>
-      </c>
-      <c r="L15" s="106">
+        <v>7.4948382656572665E-2</v>
+      </c>
+      <c r="L15" s="94">
         <f t="shared" si="4"/>
-        <v>0.13044684284849709</v>
-      </c>
-      <c r="M15" s="106">
+        <v>0.1351724833568691</v>
+      </c>
+      <c r="M15" s="94">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R15" s="106" t="e">
+        <v>0.73050847457627111</v>
+      </c>
+      <c r="R15" s="94">
         <f t="shared" ref="R15:S15" si="5">ABS((R14-R13)/R14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="106" t="e">
+        <v>0.24246146498076307</v>
+      </c>
+      <c r="S15" s="94">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.73055242462133108</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2353,17 +2583,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15:M15">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:S15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0.1</formula>
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2395,11 +2640,11 @@
       <c r="A1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
       <c r="F1" s="47" t="s">
         <v>26</v>
       </c>
@@ -2877,19 +3122,19 @@
       <c r="B1" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="103"/>
+      <c r="J1" s="106"/>
       <c r="K1" s="80"/>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103" t="s">
+      <c r="M1" s="106"/>
+      <c r="N1" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="103"/>
+      <c r="O1" s="106"/>
       <c r="P1" s="80"/>
       <c r="Q1" s="92" t="s">
         <v>134</v>
@@ -2897,10 +3142,10 @@
       <c r="R1" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="101" t="s">
+      <c r="S1" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="101"/>
+      <c r="T1" s="104"/>
       <c r="U1" s="80"/>
       <c r="V1" s="81" t="s">
         <v>140</v>
@@ -2919,14 +3164,14 @@
       <c r="J2" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="104">
-        <v>0</v>
-      </c>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104">
-        <v>0</v>
-      </c>
-      <c r="O2" s="104"/>
+      <c r="L2" s="107">
+        <v>0</v>
+      </c>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107">
+        <v>0</v>
+      </c>
+      <c r="O2" s="107"/>
       <c r="Q2" s="45">
         <v>12</v>
       </c>
@@ -10116,7 +10361,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="96" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="60">
@@ -10151,7 +10396,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="60">
         <v>2</v>
       </c>
@@ -10184,7 +10429,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="60">
         <v>2</v>
       </c>
@@ -10664,7 +10909,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="60">
@@ -10700,7 +10945,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="60">
         <v>7</v>
       </c>
@@ -10734,7 +10979,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="60">
         <v>5</v>
       </c>
@@ -11720,7 +11965,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="60">
@@ -11758,7 +12003,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="60">
         <v>7</v>
       </c>
@@ -11786,7 +12031,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="60">
         <v>5</v>
       </c>
@@ -12900,16 +13145,16 @@
       <c r="A1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="J1" s="98" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="J1" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="100"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">

--- a/Tallaght Tallght Model_Original/control.xlsx
+++ b/Tallaght Tallght Model_Original/control.xlsx
@@ -1331,7 +1331,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1714,7 +1794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1745,583 +1827,393 @@
         <v>139</v>
       </c>
       <c r="B1" s="37">
-        <v>9.8303276593172519</v>
+        <v>9.4138778626340169</v>
       </c>
       <c r="C1" s="37">
-        <v>15.293182870586527</v>
+        <v>14.08421507402495</v>
       </c>
       <c r="D1" s="37">
-        <v>8.4978983801917245</v>
+        <v>8.2402013831449157</v>
       </c>
       <c r="E1" s="37">
-        <v>11.622144142232438</v>
+        <v>10.800537762795999</v>
       </c>
       <c r="F1" s="37">
-        <v>15.492027712889239</v>
+        <v>14.373431812902046</v>
       </c>
       <c r="G1" s="37">
-        <v>9.7155973534039273</v>
+        <v>9.1167720082881925</v>
       </c>
       <c r="H1" s="37">
-        <v>3.9806332844868182</v>
+        <v>4.1785946079115623</v>
       </c>
       <c r="I1" s="37">
-        <v>4.0655990142875629</v>
+        <v>4.3750424642289216</v>
       </c>
       <c r="J1" s="37">
-        <v>3.8516454555501687</v>
+        <v>3.9021540461949362</v>
       </c>
       <c r="K1" s="38">
-        <v>696</v>
+        <v>1587</v>
       </c>
       <c r="L1" s="38">
-        <v>8550</v>
+        <v>9610</v>
       </c>
       <c r="M1" s="38">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="N1" s="39">
-        <v>91.267905295934739</v>
+        <v>82.785458527139582</v>
       </c>
       <c r="O1" s="39">
-        <v>0.38543059120754269</v>
+        <v>0.56567825655820203</v>
       </c>
       <c r="P1" s="39">
-        <v>0.21530684731548061</v>
+        <v>0.45032039574678406</v>
       </c>
       <c r="Q1" s="39">
-        <v>18.154383700964612</v>
+        <v>23.44955618311014</v>
       </c>
       <c r="R1" s="40">
         <f>K1/L1</f>
-        <v>8.1403508771929825E-2</v>
+        <v>0.16514047866805412</v>
       </c>
       <c r="S1" s="40">
         <f>M1/K1</f>
-        <v>0.56752873563218387</v>
+        <v>0.23440453686200377</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="37">
-        <v>9.0989441587044162</v>
+        <v>9.6611684733969039</v>
       </c>
       <c r="C2" s="37">
-        <v>13.713484043976541</v>
+        <v>14.604882857634161</v>
       </c>
       <c r="D2" s="37">
-        <v>7.8821906644377417</v>
+        <v>8.3884360902110338</v>
       </c>
       <c r="E2" s="37">
-        <v>10.68843682131312</v>
+        <v>10.991471564221525</v>
       </c>
       <c r="F2" s="37">
-        <v>14.264540183689631</v>
+        <v>14.528280501220232</v>
       </c>
       <c r="G2" s="37">
-        <v>8.9144816427350175</v>
+        <v>9.2102201388577338</v>
       </c>
       <c r="H2" s="37">
-        <v>4.2022980207916234</v>
+        <v>4.1553300374828552</v>
       </c>
       <c r="I2" s="37">
-        <v>4.2596009717898911</v>
+        <v>4.2642426351697482</v>
       </c>
       <c r="J2" s="37">
-        <v>4.1036827704638164</v>
+        <v>4.0047481377588863</v>
       </c>
       <c r="K2" s="38">
-        <v>1618</v>
+        <v>1643</v>
       </c>
       <c r="L2" s="38">
-        <v>8517</v>
+        <v>9675</v>
       </c>
       <c r="M2" s="38">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="N2" s="39">
-        <v>88.73448488811772</v>
+        <v>82.279312814274192</v>
       </c>
       <c r="O2" s="39">
-        <v>0.56065272080893414</v>
+        <v>0.58342339909559227</v>
       </c>
       <c r="P2" s="39">
-        <v>0.43706895182662292</v>
+        <v>0.45867526998347241</v>
       </c>
       <c r="Q2" s="39">
-        <v>26.505064970459934</v>
+        <v>24.452622515560257</v>
       </c>
       <c r="R2" s="40">
         <f>K2/L2</f>
-        <v>0.18997299518609839</v>
+        <v>0.16981912144702843</v>
       </c>
       <c r="S2" s="40">
         <f>M2/K2</f>
-        <v>0.24227441285537701</v>
+        <v>0.22458916615946439</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="37">
-        <v>9.1019155791060076</v>
+        <v>9.5126098698189665</v>
       </c>
       <c r="C3" s="37">
-        <v>13.399488252369986</v>
+        <v>14.309795933659339</v>
       </c>
       <c r="D3" s="37">
-        <v>7.934657949106426</v>
+        <v>8.2716117992612315</v>
       </c>
       <c r="E3" s="37">
-        <v>10.511462467915248</v>
+        <v>11.043710896999492</v>
       </c>
       <c r="F3" s="37">
-        <v>13.89850631766465</v>
+        <v>14.631731277904512</v>
       </c>
       <c r="G3" s="37">
-        <v>8.7490085708932046</v>
+        <v>9.2265489623511581</v>
       </c>
       <c r="H3" s="37">
-        <v>4.0967810451876607</v>
+        <v>4.132790771418132</v>
       </c>
       <c r="I3" s="37">
-        <v>3.9743075840000381</v>
+        <v>4.3078330979777242</v>
       </c>
       <c r="J3" s="37">
-        <v>4.2572580875259955</v>
+        <v>3.8926242851421908</v>
       </c>
       <c r="K3" s="38">
-        <v>1610</v>
+        <v>1552</v>
       </c>
       <c r="L3" s="38">
-        <v>8501</v>
+        <v>9565</v>
       </c>
       <c r="M3" s="38">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="N3" s="39">
-        <v>86.150030138705858</v>
+        <v>81.333630906776094</v>
       </c>
       <c r="O3" s="39">
-        <v>0.55724509236743036</v>
+        <v>0.55608164456182485</v>
       </c>
       <c r="P3" s="39">
-        <v>0.43506702706858502</v>
+        <v>0.43662912804044984</v>
       </c>
       <c r="Q3" s="39">
-        <v>27.519819907843253</v>
+        <v>24.031536544291658</v>
       </c>
       <c r="R3" s="40">
         <f>K3/L3</f>
-        <v>0.18938948359016586</v>
+        <v>0.16225823314166232</v>
       </c>
       <c r="S3" s="40">
         <f>M3/K3</f>
-        <v>0.25900621118012424</v>
+        <v>0.24291237113402062</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="37">
-        <v>9.3525955924191511</v>
+        <v>9.4695834968231001</v>
       </c>
       <c r="C4" s="37">
-        <v>13.918597700077566</v>
+        <v>14.107537412069009</v>
       </c>
       <c r="D4" s="37">
-        <v>8.1769371189725941</v>
+        <v>8.3003226751644199</v>
       </c>
       <c r="E4" s="37">
-        <v>10.984245605731219</v>
+        <v>10.815077344515585</v>
       </c>
       <c r="F4" s="37">
-        <v>14.357537605101081</v>
+        <v>14.465458141439139</v>
       </c>
       <c r="G4" s="37">
-        <v>9.243687406093386</v>
+        <v>9.0840449147792217</v>
       </c>
       <c r="H4" s="37">
-        <v>4.0452621138784499</v>
+        <v>4.2320859308026613</v>
       </c>
       <c r="I4" s="37">
-        <v>3.9252827119321205</v>
+        <v>4.4667689773642261</v>
       </c>
       <c r="J4" s="37">
-        <v>4.2106592543067416</v>
+        <v>3.8970396841083237</v>
       </c>
       <c r="K4" s="38">
-        <v>1501</v>
+        <v>1471</v>
       </c>
       <c r="L4" s="38">
-        <v>8555</v>
+        <v>9550</v>
       </c>
       <c r="M4" s="38">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="N4" s="39">
-        <v>88.749798552849171</v>
+        <v>80.676617884326703</v>
       </c>
       <c r="O4" s="39">
-        <v>0.53614609588202455</v>
+        <v>0.54336546036566413</v>
       </c>
       <c r="P4" s="39">
-        <v>0.41221528128928836</v>
+        <v>0.4173646312215557</v>
       </c>
       <c r="Q4" s="39">
-        <v>27.785914178453055</v>
+        <v>24.404778787158623</v>
       </c>
       <c r="R4" s="40">
         <f t="shared" ref="R4:R10" si="0">K4/L4</f>
-        <v>0.17545295149035653</v>
+        <v>0.15403141361256545</v>
       </c>
       <c r="S4" s="40">
         <f t="shared" ref="S4:S10" si="1">M4/K4</f>
-        <v>0.26915389740173218</v>
+        <v>0.26512576478585997</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="37">
-        <v>9.2804238745076262</v>
+        <v>9.7147412689011841</v>
       </c>
       <c r="C5" s="37">
-        <v>13.87644455185645</v>
+        <v>14.438997816707561</v>
       </c>
       <c r="D5" s="37">
-        <v>8.0619439740012115</v>
+        <v>8.4790212400418117</v>
       </c>
       <c r="E5" s="37">
-        <v>10.738121502529241</v>
+        <v>11.247446325868482</v>
       </c>
       <c r="F5" s="37">
-        <v>14.275486036889541</v>
+        <v>14.896530879159384</v>
       </c>
       <c r="G5" s="37">
-        <v>8.862376308575298</v>
+        <v>9.4678225720229285</v>
       </c>
       <c r="H5" s="37">
-        <v>4.2682578668318394</v>
+        <v>4.2740225978759572</v>
       </c>
       <c r="I5" s="37">
-        <v>4.3623934450788715</v>
+        <v>4.5045411132596627</v>
       </c>
       <c r="J5" s="37">
-        <v>4.119155226043187</v>
+        <v>3.9522426952799452</v>
       </c>
       <c r="K5" s="38">
-        <v>1415</v>
+        <v>1481</v>
       </c>
       <c r="L5" s="38">
-        <v>8513</v>
+        <v>9748</v>
       </c>
       <c r="M5" s="38">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="N5" s="39">
-        <v>88.424700167929331</v>
+        <v>83.322837388596369</v>
       </c>
       <c r="O5" s="39">
-        <v>0.52453304245441257</v>
+        <v>0.5436883041746382</v>
       </c>
       <c r="P5" s="39">
-        <v>0.39414315417750967</v>
+        <v>0.42547046242899067</v>
       </c>
       <c r="Q5" s="39">
-        <v>25.697271559167273</v>
+        <v>23.434041461729546</v>
       </c>
       <c r="R5" s="40">
         <f t="shared" si="0"/>
-        <v>0.16621637495594974</v>
+        <v>0.15192860073861306</v>
       </c>
       <c r="S5" s="40">
         <f t="shared" si="1"/>
-        <v>0.30176678445229682</v>
+        <v>0.25928426738690075</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
-        <v>9.1056405787736239</v>
-      </c>
-      <c r="C6" s="37">
-        <v>13.472634981900145</v>
-      </c>
-      <c r="D6" s="37">
-        <v>7.912018080562925</v>
-      </c>
-      <c r="E6" s="37">
-        <v>10.684581280914205</v>
-      </c>
-      <c r="F6" s="37">
-        <v>14.001767060651945</v>
-      </c>
-      <c r="G6" s="37">
-        <v>8.9117713629523383</v>
-      </c>
-      <c r="H6" s="37">
-        <v>4.0859134059919198</v>
-      </c>
-      <c r="I6" s="37">
-        <v>4.0662557700908843</v>
-      </c>
-      <c r="J6" s="37">
-        <v>4.1069319861011113</v>
-      </c>
-      <c r="K6" s="38">
-        <v>1819</v>
-      </c>
-      <c r="L6" s="38">
-        <v>8541</v>
-      </c>
-      <c r="M6" s="38">
-        <v>405</v>
-      </c>
-      <c r="N6" s="39">
-        <v>86.489826254181608</v>
-      </c>
-      <c r="O6" s="39">
-        <v>0.59351625059613533</v>
-      </c>
-      <c r="P6" s="39">
-        <v>0.48557340613016525</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>27.861055437030085</v>
-      </c>
-      <c r="R6" s="40">
-        <f t="shared" si="0"/>
-        <v>0.21297271982203489</v>
-      </c>
-      <c r="S6" s="40">
-        <f t="shared" si="1"/>
-        <v>0.22264980758658603</v>
-      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="37">
-        <v>9.3297431979890639</v>
-      </c>
-      <c r="C7" s="37">
-        <v>13.989151074426905</v>
-      </c>
-      <c r="D7" s="37">
-        <v>8.0972017288158646</v>
-      </c>
-      <c r="E7" s="37">
-        <v>10.91894887846332</v>
-      </c>
-      <c r="F7" s="37">
-        <v>14.530841233982143</v>
-      </c>
-      <c r="G7" s="37">
-        <v>9.0608436183872225</v>
-      </c>
-      <c r="H7" s="37">
-        <v>4.2849296788645237</v>
-      </c>
-      <c r="I7" s="37">
-        <v>4.3185732124763936</v>
-      </c>
-      <c r="J7" s="37">
-        <v>4.2252543965769451</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1704</v>
-      </c>
-      <c r="L7" s="38">
-        <v>8742</v>
-      </c>
-      <c r="M7" s="38">
-        <v>411</v>
-      </c>
-      <c r="N7" s="39">
-        <v>88.870898584361498</v>
-      </c>
-      <c r="O7" s="39">
-        <v>0.57830752741873481</v>
-      </c>
-      <c r="P7" s="39">
-        <v>0.45748794851511043</v>
-      </c>
-      <c r="Q7" s="39">
-        <v>27.842687489561229</v>
-      </c>
-      <c r="R7" s="40">
-        <f t="shared" si="0"/>
-        <v>0.19492107069320522</v>
-      </c>
-      <c r="S7" s="40">
-        <f t="shared" si="1"/>
-        <v>0.24119718309859156</v>
-      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="37">
-        <v>9.1451429584520145</v>
-      </c>
-      <c r="C8" s="37">
-        <v>13.574917992541483</v>
-      </c>
-      <c r="D8" s="37">
-        <v>7.9604504677545425</v>
-      </c>
-      <c r="E8" s="37">
-        <v>10.762987296802665</v>
-      </c>
-      <c r="F8" s="37">
-        <v>14.405835009742002</v>
-      </c>
-      <c r="G8" s="37">
-        <v>8.8913821380790434</v>
-      </c>
-      <c r="H8" s="37">
-        <v>4.1719120963702689</v>
-      </c>
-      <c r="I8" s="37">
-        <v>4.247036437303473</v>
-      </c>
-      <c r="J8" s="37">
-        <v>4.0608579193077308</v>
-      </c>
-      <c r="K8" s="38">
-        <v>1631</v>
-      </c>
-      <c r="L8" s="38">
-        <v>8594</v>
-      </c>
-      <c r="M8" s="38">
-        <v>424</v>
-      </c>
-      <c r="N8" s="39">
-        <v>87.433016294391379</v>
-      </c>
-      <c r="O8" s="39">
-        <v>0.56858553633226039</v>
-      </c>
-      <c r="P8" s="39">
-        <v>0.44818507534815694</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>27.01555784466629</v>
-      </c>
-      <c r="R8" s="40">
-        <f t="shared" si="0"/>
-        <v>0.18978356993251105</v>
-      </c>
-      <c r="S8" s="40">
-        <f t="shared" si="1"/>
-        <v>0.25996321275291234</v>
-      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="37">
-        <v>9.40600366421112</v>
-      </c>
-      <c r="C9" s="37">
-        <v>14.099412138046683</v>
-      </c>
-      <c r="D9" s="37">
-        <v>8.1814006450614531</v>
-      </c>
-      <c r="E9" s="37">
-        <v>10.785657210206478</v>
-      </c>
-      <c r="F9" s="37">
-        <v>14.226194282264803</v>
-      </c>
-      <c r="G9" s="37">
-        <v>9.004601494364076</v>
-      </c>
-      <c r="H9" s="37">
-        <v>4.2563062464040602</v>
-      </c>
-      <c r="I9" s="37">
-        <v>4.2122553923413015</v>
-      </c>
-      <c r="J9" s="37">
-        <v>4.3039287581086976</v>
-      </c>
-      <c r="K9" s="38">
-        <v>1870</v>
-      </c>
-      <c r="L9" s="38">
-        <v>8635</v>
-      </c>
-      <c r="M9" s="38">
-        <v>391</v>
-      </c>
-      <c r="N9" s="39">
-        <v>87.765763495931708</v>
-      </c>
-      <c r="O9" s="39">
-        <v>0.60476867527075562</v>
-      </c>
-      <c r="P9" s="39">
-        <v>0.495755704613213</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>30.11547740027628</v>
-      </c>
-      <c r="R9" s="40">
-        <f t="shared" si="0"/>
-        <v>0.21656050955414013</v>
-      </c>
-      <c r="S9" s="40">
-        <f t="shared" si="1"/>
-        <v>0.20909090909090908</v>
-      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="37">
-        <v>9.003296147773959</v>
-      </c>
-      <c r="C10" s="37">
-        <v>13.385886283039543</v>
-      </c>
-      <c r="D10" s="37">
-        <v>7.8247772700503075</v>
-      </c>
-      <c r="E10" s="37">
-        <v>10.509291467925102</v>
-      </c>
-      <c r="F10" s="37">
-        <v>13.870391680726781</v>
-      </c>
-      <c r="G10" s="37">
-        <v>8.7592118845815694</v>
-      </c>
-      <c r="H10" s="37">
-        <v>4.2288580609899764</v>
-      </c>
-      <c r="I10" s="37">
-        <v>4.2794236457973849</v>
-      </c>
-      <c r="J10" s="37">
-        <v>4.1412109824909411</v>
-      </c>
-      <c r="K10" s="38">
-        <v>1755</v>
-      </c>
-      <c r="L10" s="38">
-        <v>8591</v>
-      </c>
-      <c r="M10" s="38">
-        <v>418</v>
-      </c>
-      <c r="N10" s="39">
-        <v>87.034417050996879</v>
-      </c>
-      <c r="O10" s="39">
-        <v>0.59336801786936799</v>
-      </c>
-      <c r="P10" s="39">
-        <v>0.46970411403788942</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>28.958202286395224</v>
-      </c>
-      <c r="R10" s="40">
-        <f t="shared" si="0"/>
-        <v>0.20428355255499941</v>
-      </c>
-      <c r="S10" s="40">
-        <f t="shared" si="1"/>
-        <v>0.23817663817663817</v>
-      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="42"/>
@@ -2350,75 +2242,75 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <f t="shared" ref="B13:L13" si="2">AVERAGE(B1:B10)</f>
-        <v>9.265403341125424</v>
+        <v>9.554396194314835</v>
       </c>
       <c r="C13" s="44">
         <f t="shared" si="2"/>
-        <v>13.872319988882182</v>
+        <v>14.309085818819003</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="2"/>
-        <v>8.0529476278954792</v>
+        <v>8.3359186375646814</v>
       </c>
       <c r="E13" s="44">
         <f t="shared" si="2"/>
-        <v>10.820587667403306</v>
+        <v>10.979648778880216</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="2"/>
-        <v>14.332312712360183</v>
+        <v>14.579086522525063</v>
       </c>
       <c r="G13" s="44">
         <f t="shared" si="2"/>
-        <v>9.0112961780065088</v>
+        <v>9.2210817192598462</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="2"/>
-        <v>4.162115181979714</v>
+        <v>4.1945647890982345</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="2"/>
-        <v>4.1710728185097929</v>
+        <v>4.383685657600056</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="2"/>
-        <v>4.1380584836475327</v>
+        <v>3.9297617696968565</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="2"/>
-        <v>1561.9</v>
+        <v>1546.8</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="2"/>
-        <v>8573.9</v>
+        <v>9629.6</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" ref="M13:S13" si="3">AVERAGE(M1:M10)</f>
-        <v>408.4</v>
+        <v>378.4</v>
       </c>
       <c r="N13" s="44">
         <f t="shared" si="3"/>
-        <v>88.092084072339986</v>
+        <v>82.079571504222585</v>
       </c>
       <c r="O13" s="44">
         <f t="shared" si="3"/>
-        <v>0.55025535502075984</v>
+        <v>0.55844741295118427</v>
       </c>
       <c r="P13" s="44">
         <f t="shared" si="3"/>
-        <v>0.42505075103220219</v>
+        <v>0.43769197748425059</v>
       </c>
       <c r="Q13" s="44">
         <f t="shared" si="3"/>
-        <v>26.745543477481725</v>
+        <v>23.954507098370044</v>
       </c>
       <c r="R13" s="44">
         <f t="shared" si="3"/>
-        <v>0.18209567365513907</v>
+        <v>0.16063556952158467</v>
       </c>
       <c r="S13" s="44">
         <f t="shared" si="3"/>
-        <v>0.28108077922273511</v>
+        <v>0.24526322126564989</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="93" customFormat="1" x14ac:dyDescent="0.3">
@@ -2470,59 +2362,59 @@
     <row r="15" spans="1:19" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="94">
         <f>ABS((B14-B13)/B14)</f>
-        <v>0.12444215304920191</v>
+        <v>0.15951410125180032</v>
       </c>
       <c r="C15" s="94">
         <f t="shared" ref="C15:M15" si="4">ABS((C14-C13)/C14)</f>
-        <v>8.8546649876334968E-2</v>
+        <v>5.9849814795072093E-2</v>
       </c>
       <c r="D15" s="94">
         <f t="shared" si="4"/>
-        <v>0.38129461884999644</v>
+        <v>0.42983167025123181</v>
       </c>
       <c r="E15" s="94">
         <f t="shared" si="4"/>
-        <v>3.7448482013739785E-2</v>
+        <v>5.2698828272312245E-2</v>
       </c>
       <c r="F15" s="94">
         <f t="shared" si="4"/>
-        <v>0.13295143905867016</v>
+        <v>0.11802259391862902</v>
       </c>
       <c r="G15" s="94">
         <f t="shared" si="4"/>
-        <v>0.33897417206634595</v>
+        <v>0.37014587210398897</v>
       </c>
       <c r="H15" s="94">
         <f t="shared" si="4"/>
-        <v>6.6790317941768165E-2</v>
+        <v>5.9514621278422754E-2</v>
       </c>
       <c r="I15" s="94">
         <f t="shared" si="4"/>
-        <v>0.16411366362529203</v>
+        <v>0.12150588024046978</v>
       </c>
       <c r="J15" s="94">
         <f t="shared" si="4"/>
-        <v>1.0033855586714597E-2</v>
+        <v>5.9865605335680194E-2</v>
       </c>
       <c r="K15" s="94">
         <f t="shared" si="4"/>
-        <v>7.4948382656572665E-2</v>
+        <v>6.4556090846524403E-2</v>
       </c>
       <c r="L15" s="94">
         <f t="shared" si="4"/>
-        <v>0.1351724833568691</v>
+        <v>2.8686705668751224E-2</v>
       </c>
       <c r="M15" s="94">
         <f t="shared" si="4"/>
-        <v>0.73050847457627111</v>
+        <v>0.6033898305084745</v>
       </c>
       <c r="R15" s="94">
-        <f t="shared" ref="R15:S15" si="5">ABS((R14-R13)/R14)</f>
-        <v>0.24246146498076307</v>
+        <f>ABS((R14-R13)/R14)</f>
+        <v>9.603650119545111E-2</v>
       </c>
       <c r="S15" s="94">
-        <f t="shared" si="5"/>
-        <v>0.73055242462133108</v>
+        <f>ABS((S14-S13)/S14)</f>
+        <v>0.51003161228385308</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2583,32 +2475,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15:M15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:S15">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+      <formula>0.1</formula>
       <formula>0.15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
-      <formula>0.1</formula>
-      <formula>0.15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>0.15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15:S15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>0.1</formula>
-      <formula>0.15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3103,9 +2995,7 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4128,7 +4018,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4209,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="85">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>146</v>
@@ -4238,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="85">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I4" s="45" t="s">
         <v>148</v>
